--- a/RUDN/Correlations/deep.Corr_in_IDX.nan.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_IDX.nan.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IDX</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IDX</t>
+  </si>
   <si>
     <t>IC.REG.DURS.FE:IDX</t>
   </si>
@@ -22,12 +28,138 @@
     <t>IC.REG.DURS.MA:IDX</t>
   </si>
   <si>
+    <t>IC.REG.PROC.FE:IDX</t>
+  </si>
+  <si>
     <t>IC.REG.PROC.MA:IDX</t>
   </si>
   <si>
+    <t>IT.CEL.SETS.P2:IDX</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IDX</t>
+  </si>
+  <si>
+    <t>NE.GDI.TOTL.ZS:IDX</t>
+  </si>
+  <si>
+    <t>NE.TRD.GNFS.ZS:IDX</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IDX</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IDX</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IDX</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IDX</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IDX</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IDX</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IDX</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IDX</t>
+  </si>
+  <si>
     <t>SH.DYN.AIDS.FE.ZS:IDX</t>
   </si>
   <si>
+    <t>SH.DYN.MORT:IDX</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:IDX</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:IDX</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IDX</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IDX</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.FE.ZS:IDX</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IDX</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.ZS:IDX</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IDX</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.FE.ZS:IDX</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IDX</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IDX</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IDX</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IDX</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IDX</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IDX</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.TO.ZS:IDX</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IDX</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IDX</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO.ZS:IDX</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IDX</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IDX</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IDX</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IDX</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IDX</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IDX:p-value</t>
+  </si>
+  <si>
     <t>IC.REG.DURS.FE:IDX:cor-value</t>
   </si>
   <si>
@@ -50,6 +182,234 @@
   </si>
   <si>
     <t>IC.REG.PROC.MA:IDX:p-value</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS.P2:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS.P2:IDX:p-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IDX:p-value</t>
+  </si>
+  <si>
+    <t>NE.GDI.TOTL.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>NE.GDI.TOTL.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IDX:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IDX:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IDX:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IDX:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IDX:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS.FE.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS.FE.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.FE.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.FE.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.FE.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.FE.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.FE.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.FE.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.TO.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.TO.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO.ZS:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO.ZS:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IDX:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IDX:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IDX:p-value</t>
   </si>
 </sst>
 </file>
@@ -407,13 +767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,105 +786,6433 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C2">
+        <v>0.9999999999265399</v>
+      </c>
+      <c r="D2">
+        <v>0.9677602244610872</v>
+      </c>
+      <c r="E2">
+        <v>0.9678810740781103</v>
+      </c>
+      <c r="F2">
+        <v>0.9722661519533765</v>
+      </c>
+      <c r="G2">
+        <v>0.9737566371534024</v>
+      </c>
+      <c r="H2">
+        <v>-0.9551063710931027</v>
+      </c>
+      <c r="I2">
+        <v>-0.8347913148243</v>
+      </c>
+      <c r="J2">
+        <v>-0.811707111691418</v>
+      </c>
+      <c r="K2">
+        <v>-0.2126554044031649</v>
+      </c>
+      <c r="L2">
+        <v>-0.9744499895384511</v>
+      </c>
+      <c r="M2">
+        <v>0.55030336296111</v>
+      </c>
+      <c r="N2">
+        <v>-0.9867117588151489</v>
+      </c>
+      <c r="O2">
+        <v>-0.9704354908335748</v>
+      </c>
+      <c r="P2">
+        <v>-0.9854391817162111</v>
+      </c>
+      <c r="Q2">
+        <v>-0.9715657610564263</v>
+      </c>
+      <c r="R2">
+        <v>-0.9702131532478149</v>
+      </c>
+      <c r="S2">
+        <v>0.9842104227424288</v>
+      </c>
+      <c r="T2">
+        <v>-0.9486357048906386</v>
+      </c>
+      <c r="U2">
+        <v>0.9828028808533077</v>
+      </c>
+      <c r="W2">
+        <v>-0.9111588576753428</v>
+      </c>
+      <c r="X2">
+        <v>-0.9643555126934505</v>
+      </c>
+      <c r="Y2">
+        <v>-0.968626863365759</v>
+      </c>
+      <c r="Z2">
+        <v>0.9703225550344128</v>
+      </c>
+      <c r="AA2">
+        <v>0.9716528072723962</v>
+      </c>
+      <c r="AB2">
+        <v>0.9746923479932638</v>
+      </c>
+      <c r="AC2">
+        <v>-0.917908690596798</v>
+      </c>
+      <c r="AD2">
+        <v>0.9744837056136518</v>
+      </c>
+      <c r="AE2">
+        <v>0.9783662755770549</v>
+      </c>
+      <c r="AF2">
+        <v>-0.9452027181840476</v>
+      </c>
+      <c r="AG2">
+        <v>-0.9480678409930559</v>
+      </c>
+      <c r="AH2">
+        <v>-0.2951289480166899</v>
+      </c>
+      <c r="AI2">
+        <v>0.9836215588928752</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.9699363889931647</v>
+      </c>
+      <c r="AK2">
+        <v>0.9435532680354454</v>
+      </c>
+      <c r="AL2">
+        <v>-0.9575479575156041</v>
+      </c>
+      <c r="AM2">
+        <v>-0.9524868209873976</v>
+      </c>
+      <c r="AN2">
+        <v>-0.9422707001273157</v>
+      </c>
+      <c r="AO2">
+        <v>-0.9550957842080362</v>
+      </c>
+      <c r="AP2">
+        <v>-0.9509425544361961</v>
+      </c>
+      <c r="AR2">
+        <v>-0.9613599829828876</v>
+      </c>
+      <c r="AS2">
+        <v>-0.9600860429928672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>2.268830446558924e-60</v>
+      </c>
+      <c r="D3">
+        <v>1.512339575054845e-08</v>
+      </c>
+      <c r="E3">
+        <v>1.479030896862502e-08</v>
+      </c>
+      <c r="F3">
+        <v>6.188726845362658e-09</v>
+      </c>
+      <c r="G3">
+        <v>4.457171750777552e-09</v>
+      </c>
+      <c r="H3">
+        <v>1.072626844444197e-07</v>
+      </c>
+      <c r="I3">
+        <v>0.0002035912587019798</v>
+      </c>
+      <c r="J3">
+        <v>0.0004231527707671924</v>
+      </c>
+      <c r="K3">
+        <v>0.4654435321749189</v>
+      </c>
+      <c r="L3">
+        <v>3.801376016345839e-09</v>
+      </c>
+      <c r="M3">
+        <v>0.04144552576118998</v>
+      </c>
+      <c r="N3">
+        <v>7.724994587727925e-11</v>
+      </c>
+      <c r="O3">
+        <v>9.045686459818661e-09</v>
+      </c>
+      <c r="P3">
+        <v>1.33357379927822e-10</v>
+      </c>
+      <c r="Q3">
+        <v>7.17680439983304e-09</v>
+      </c>
+      <c r="R3">
+        <v>9.457042187673252e-09</v>
+      </c>
+      <c r="S3">
+        <v>2.162594050971967e-10</v>
+      </c>
+      <c r="T3">
+        <v>2.37230669129815e-07</v>
+      </c>
+      <c r="U3">
+        <v>3.598883200836003e-10</v>
+      </c>
+      <c r="W3">
+        <v>5.848252960620469e-06</v>
+      </c>
+      <c r="X3">
+        <v>2.741828092182902e-08</v>
+      </c>
+      <c r="Y3">
+        <v>1.286653525095896e-08</v>
+      </c>
+      <c r="Z3">
+        <v>9.252736700128591e-09</v>
+      </c>
+      <c r="AA3">
+        <v>7.047315532196822e-09</v>
+      </c>
+      <c r="AB3">
+        <v>3.591974790280941e-09</v>
+      </c>
+      <c r="AC3">
+        <v>3.695074636587711e-06</v>
+      </c>
+      <c r="AD3">
+        <v>3.771652354392883e-09</v>
+      </c>
+      <c r="AE3">
+        <v>1.412735197337398e-09</v>
+      </c>
+      <c r="AF3">
+        <v>3.471316807089838e-07</v>
+      </c>
+      <c r="AG3">
+        <v>2.530939258764724e-07</v>
+      </c>
+      <c r="AH3">
+        <v>0.3056619830869028</v>
+      </c>
+      <c r="AI3">
+        <v>2.690517817149715e-10</v>
+      </c>
+      <c r="AJ3">
+        <v>9.990664530827553e-09</v>
+      </c>
+      <c r="AK3">
+        <v>4.132413370721759e-07</v>
+      </c>
+      <c r="AL3">
+        <v>7.709810696437658e-08</v>
+      </c>
+      <c r="AM3">
+        <v>1.498794653959944e-07</v>
+      </c>
+      <c r="AN3">
+        <v>4.715500432375952e-07</v>
+      </c>
+      <c r="AO3">
+        <v>1.074120626192352e-07</v>
+      </c>
+      <c r="AP3">
+        <v>1.809765593989276e-07</v>
+      </c>
+      <c r="AR3">
+        <v>4.420596877830999e-08</v>
+      </c>
+      <c r="AS3">
+        <v>5.355520197049568e-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>0.967760706064355</v>
+      </c>
+      <c r="E4">
+        <v>0.9678815523248111</v>
+      </c>
+      <c r="F4">
+        <v>0.972266757600041</v>
+      </c>
+      <c r="G4">
+        <v>0.9737572031027734</v>
+      </c>
+      <c r="H4">
+        <v>-0.9551072224775086</v>
+      </c>
+      <c r="I4">
+        <v>-0.8347927642939275</v>
+      </c>
+      <c r="J4">
+        <v>-0.8117069780563977</v>
+      </c>
+      <c r="K4">
+        <v>-0.212651912966826</v>
+      </c>
+      <c r="L4">
+        <v>-0.9744505964690499</v>
+      </c>
+      <c r="M4">
+        <v>0.5503027715977772</v>
+      </c>
+      <c r="N4">
+        <v>-0.9867121787354302</v>
+      </c>
+      <c r="O4">
+        <v>-0.9704361851423398</v>
+      </c>
+      <c r="P4">
+        <v>-0.9854396920360198</v>
+      </c>
+      <c r="Q4">
+        <v>-0.9715664614651705</v>
+      </c>
+      <c r="R4">
+        <v>-0.9702122183118858</v>
+      </c>
+      <c r="S4">
+        <v>0.984210285741647</v>
+      </c>
+      <c r="T4">
+        <v>-0.9486363084540994</v>
+      </c>
+      <c r="U4">
+        <v>0.9828031605840174</v>
+      </c>
+      <c r="W4">
+        <v>-0.9111601056546618</v>
+      </c>
+      <c r="X4">
+        <v>-0.9643549168593959</v>
+      </c>
+      <c r="Y4">
+        <v>-0.9686259146844984</v>
+      </c>
+      <c r="Z4">
+        <v>0.9703211374782649</v>
+      </c>
+      <c r="AA4">
+        <v>0.9716524795770123</v>
+      </c>
+      <c r="AB4">
+        <v>0.9746914373692973</v>
+      </c>
+      <c r="AC4">
+        <v>-0.9179079106591248</v>
+      </c>
+      <c r="AD4">
+        <v>0.9744834545071457</v>
+      </c>
+      <c r="AE4">
+        <v>0.9783659439740994</v>
+      </c>
+      <c r="AF4">
+        <v>-0.94520347359503</v>
+      </c>
+      <c r="AG4">
+        <v>-0.9480685781507905</v>
+      </c>
+      <c r="AH4">
+        <v>-0.2951204419232475</v>
+      </c>
+      <c r="AI4">
+        <v>0.9836218629774469</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.9699369800556377</v>
+      </c>
+      <c r="AK4">
+        <v>0.9435539584455511</v>
+      </c>
+      <c r="AL4">
+        <v>-0.95754864007192</v>
+      </c>
+      <c r="AM4">
+        <v>-0.9524875288023535</v>
+      </c>
+      <c r="AN4">
+        <v>-0.9422713513529207</v>
+      </c>
+      <c r="AO4">
+        <v>-0.9550964792657204</v>
+      </c>
+      <c r="AP4">
+        <v>-0.9509433708005159</v>
+      </c>
+      <c r="AR4">
+        <v>-0.9613606441501222</v>
+      </c>
+      <c r="AS4">
+        <v>-0.9600867108419932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>1.51220561118737e-08</v>
+      </c>
+      <c r="E5">
+        <v>1.478900301227031e-08</v>
+      </c>
+      <c r="F5">
+        <v>6.187924119070087e-09</v>
+      </c>
+      <c r="G5">
+        <v>4.456600517906478e-09</v>
+      </c>
+      <c r="H5">
+        <v>1.072506791073128e-07</v>
+      </c>
+      <c r="I5">
+        <v>0.000203581217366584</v>
+      </c>
+      <c r="J5">
+        <v>0.0004231544419492949</v>
+      </c>
+      <c r="K5">
+        <v>0.4654510312961199</v>
+      </c>
+      <c r="L5">
+        <v>3.800839240522389e-09</v>
+      </c>
+      <c r="M5">
+        <v>0.04144578941273473</v>
+      </c>
+      <c r="N5">
+        <v>7.723536989401878e-11</v>
+      </c>
+      <c r="O5">
+        <v>9.044425546378306e-09</v>
+      </c>
+      <c r="P5">
+        <v>1.333294859935285e-10</v>
+      </c>
+      <c r="Q5">
+        <v>7.175754657164428e-09</v>
+      </c>
+      <c r="R5">
+        <v>9.458804153205442e-09</v>
+      </c>
+      <c r="S5">
+        <v>2.162705999092298e-10</v>
+      </c>
+      <c r="T5">
+        <v>2.372142570458753e-07</v>
+      </c>
+      <c r="U5">
+        <v>3.598534147240382e-10</v>
+      </c>
+      <c r="W5">
+        <v>5.847776265481212e-06</v>
+      </c>
+      <c r="X5">
+        <v>2.742099547731191e-08</v>
+      </c>
+      <c r="Y5">
+        <v>1.286884334042697e-08</v>
+      </c>
+      <c r="Z5">
+        <v>9.25536033747848e-09</v>
+      </c>
+      <c r="AA5">
+        <v>7.047799346221189e-09</v>
+      </c>
+      <c r="AB5">
+        <v>3.592743261131588e-09</v>
+      </c>
+      <c r="AC5">
+        <v>3.695278899063675e-06</v>
+      </c>
+      <c r="AD5">
+        <v>3.771873011323117e-09</v>
+      </c>
+      <c r="AE5">
+        <v>1.412864116682086e-09</v>
+      </c>
+      <c r="AF5">
+        <v>3.471035434727143e-07</v>
+      </c>
+      <c r="AG5">
+        <v>2.530727792559902e-07</v>
+      </c>
+      <c r="AH5">
+        <v>0.3056765827494714</v>
+      </c>
+      <c r="AI5">
+        <v>2.690219880054123e-10</v>
+      </c>
+      <c r="AJ5">
+        <v>9.989498869559966e-09</v>
+      </c>
+      <c r="AK5">
+        <v>4.132116365714808e-07</v>
+      </c>
+      <c r="AL5">
+        <v>7.709078429064115e-08</v>
+      </c>
+      <c r="AM5">
+        <v>1.498663007791068e-07</v>
+      </c>
+      <c r="AN5">
+        <v>4.71518800930314e-07</v>
+      </c>
+      <c r="AO5">
+        <v>1.074022502591739e-07</v>
+      </c>
+      <c r="AP5">
+        <v>1.809588131433061e-07</v>
+      </c>
+      <c r="AR5">
+        <v>4.420149412412911e-08</v>
+      </c>
+      <c r="AS5">
+        <v>5.354990346435971e-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
         <v>0.9999997621986518</v>
       </c>
-      <c r="E2">
+      <c r="H6">
+        <v>-0.9926344451021677</v>
+      </c>
+      <c r="I6">
+        <v>-0.905426410394645</v>
+      </c>
+      <c r="J6">
+        <v>-0.8714231551131099</v>
+      </c>
+      <c r="K6">
+        <v>-0.1833158718120378</v>
+      </c>
+      <c r="T6">
         <v>-0.9698923129070014</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="U6">
+        <v>0.9818760472280924</v>
+      </c>
+      <c r="W6">
+        <v>-0.9622031518843358</v>
+      </c>
+      <c r="AB6">
+        <v>0.9158328123725783</v>
+      </c>
+      <c r="AC6">
+        <v>-0.8199577456945619</v>
+      </c>
+      <c r="AI6">
+        <v>0.9811186577891977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
         <v>2.610824326212547e-39</v>
       </c>
-      <c r="E3">
+      <c r="H7">
+        <v>2.269134684459927e-12</v>
+      </c>
+      <c r="I7">
+        <v>8.402866491179113e-06</v>
+      </c>
+      <c r="J7">
+        <v>4.916983843735884e-05</v>
+      </c>
+      <c r="K7">
+        <v>0.5304574060762874</v>
+      </c>
+      <c r="T7">
         <v>1.007790754989268e-08</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
+      <c r="U7">
+        <v>4.921330381084537e-10</v>
+      </c>
+      <c r="W7">
+        <v>3.879602106565472e-08</v>
+      </c>
+      <c r="AB7">
+        <v>4.272678604465125e-06</v>
+      </c>
+      <c r="AC7">
+        <v>0.0003296176816529149</v>
+      </c>
+      <c r="AI7">
+        <v>6.28133803590843e-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>-0.9926145061811996</v>
+      </c>
+      <c r="I8">
+        <v>-0.9053469281149666</v>
+      </c>
+      <c r="J8">
+        <v>-0.871440158961813</v>
+      </c>
+      <c r="K8">
+        <v>-0.1836554005402111</v>
+      </c>
+      <c r="T8">
         <v>-0.9699281092110535</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
+      <c r="U8">
+        <v>0.9819623737352673</v>
+      </c>
+      <c r="W8">
+        <v>-0.9621573050339064</v>
+      </c>
+      <c r="AB8">
+        <v>0.9160418600874563</v>
+      </c>
+      <c r="AC8">
+        <v>-0.8202042361204971</v>
+      </c>
+      <c r="AI8">
+        <v>0.981207106419695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>2.306142150776321e-12</v>
+      </c>
+      <c r="I9">
+        <v>8.443834143615888e-06</v>
+      </c>
+      <c r="J9">
+        <v>4.913272077660638e-05</v>
+      </c>
+      <c r="K9">
+        <v>0.5296829373550695</v>
+      </c>
+      <c r="T9">
         <v>1.000700533297093e-08</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="U9">
+        <v>4.783240393659854e-10</v>
+      </c>
+      <c r="W9">
+        <v>3.907533478221925e-08</v>
+      </c>
+      <c r="AB9">
+        <v>4.211350021081733e-06</v>
+      </c>
+      <c r="AC9">
+        <v>0.0003271050277935378</v>
+      </c>
+      <c r="AI9">
+        <v>6.10801137708727e-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
         <v>0.9948906883715595</v>
       </c>
-      <c r="C6">
+      <c r="E10">
         <v>0.9948824488754124</v>
       </c>
-      <c r="D6">
+      <c r="G10">
         <v>0.9999667447302238</v>
       </c>
-      <c r="E6">
+      <c r="H10">
+        <v>-0.9903253161763427</v>
+      </c>
+      <c r="I10">
+        <v>-0.9124537149908358</v>
+      </c>
+      <c r="J10">
+        <v>-0.8237982036481483</v>
+      </c>
+      <c r="K10">
+        <v>-0.1031102530100814</v>
+      </c>
+      <c r="T10">
         <v>-0.9734229361009487</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="U10">
+        <v>0.9797915423981803</v>
+      </c>
+      <c r="W10">
+        <v>-0.9656853687377059</v>
+      </c>
+      <c r="AB10">
+        <v>0.9170453479877922</v>
+      </c>
+      <c r="AC10">
+        <v>-0.8206042725514733</v>
+      </c>
+      <c r="AI10">
+        <v>0.9793416520038262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
         <v>2.540426815080943e-13</v>
       </c>
-      <c r="C7">
+      <c r="E11">
         <v>2.565061558840144e-13</v>
       </c>
-      <c r="D7">
+      <c r="G11">
         <v>1.952647728155487e-26</v>
       </c>
-      <c r="E7">
+      <c r="H11">
+        <v>1.159556656820759e-11</v>
+      </c>
+      <c r="I11">
+        <v>5.370512592420502e-06</v>
+      </c>
+      <c r="J11">
+        <v>0.0002921902914498387</v>
+      </c>
+      <c r="K11">
+        <v>0.7257606252286415</v>
+      </c>
+      <c r="T11">
         <v>4.804748481893549e-09</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="U11">
+        <v>9.414762922391907e-10</v>
+      </c>
+      <c r="W11">
+        <v>2.188854140154994e-08</v>
+      </c>
+      <c r="AB11">
+        <v>3.926940725060438e-06</v>
+      </c>
+      <c r="AC11">
+        <v>0.0003230600735244329</v>
+      </c>
+      <c r="AI11">
+        <v>1.073400641966262e-09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
         <v>0.9949581673609456</v>
       </c>
-      <c r="C8">
+      <c r="E12">
         <v>0.9949555518025154</v>
       </c>
-      <c r="E8">
+      <c r="H12">
+        <v>-0.9901579224476704</v>
+      </c>
+      <c r="I12">
+        <v>-0.9115715825948429</v>
+      </c>
+      <c r="J12">
+        <v>-0.8240850665735403</v>
+      </c>
+      <c r="K12">
+        <v>-0.1071801256608215</v>
+      </c>
+      <c r="T12">
         <v>-0.9739091951646101</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="U12">
+        <v>0.9808788501745261</v>
+      </c>
+      <c r="W12">
+        <v>-0.9652065015621336</v>
+      </c>
+      <c r="AB12">
+        <v>0.9195763042361446</v>
+      </c>
+      <c r="AC12">
+        <v>-0.8235714898781826</v>
+      </c>
+      <c r="AI12">
+        <v>0.980453806245521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13">
         <v>2.345988136511145e-13</v>
       </c>
-      <c r="C9">
+      <c r="E13">
         <v>2.353286586532117e-13</v>
       </c>
-      <c r="E9">
+      <c r="H13">
+        <v>1.284800225919219e-11</v>
+      </c>
+      <c r="I13">
+        <v>5.692333557693711e-06</v>
+      </c>
+      <c r="J13">
+        <v>0.0002895387010611028</v>
+      </c>
+      <c r="K13">
+        <v>0.7153391091432598</v>
+      </c>
+      <c r="T13">
         <v>4.305372807316954e-09</v>
+      </c>
+      <c r="U13">
+        <v>6.771956536497192e-10</v>
+      </c>
+      <c r="W13">
+        <v>2.376170641624786e-08</v>
+      </c>
+      <c r="AB13">
+        <v>3.279043267199798e-06</v>
+      </c>
+      <c r="AC13">
+        <v>0.0002942997391852997</v>
+      </c>
+      <c r="AI13">
+        <v>7.719776887183816e-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14">
+        <v>0.1344180397321173</v>
+      </c>
+      <c r="U14">
+        <v>-0.9832444664189062</v>
+      </c>
+      <c r="AI14">
+        <v>-0.9824975891295125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15">
+        <v>0.6468492109944218</v>
+      </c>
+      <c r="U15">
+        <v>3.081745965162876e-10</v>
+      </c>
+      <c r="AI15">
+        <v>3.997005422191235e-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16">
+        <v>0.9424088255101704</v>
+      </c>
+      <c r="U16">
+        <v>-0.9029161991882033</v>
+      </c>
+      <c r="AI16">
+        <v>-0.9018049001650982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17">
+        <v>4.649616909119408e-07</v>
+      </c>
+      <c r="U17">
+        <v>9.778266929461701e-06</v>
+      </c>
+      <c r="AI17">
+        <v>1.044347265065134e-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>0.8606052113184656</v>
+      </c>
+      <c r="I18">
+        <v>0.7289689513708593</v>
+      </c>
+      <c r="K18">
+        <v>0.5608851891107716</v>
+      </c>
+      <c r="U18">
+        <v>-0.841762110768144</v>
+      </c>
+      <c r="AI18">
+        <v>-0.8397709470142227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19">
+        <v>7.790746045260943e-05</v>
+      </c>
+      <c r="I19">
+        <v>0.00309801174019443</v>
+      </c>
+      <c r="K19">
+        <v>0.03692166558215168</v>
+      </c>
+      <c r="U19">
+        <v>0.0001597157381533874</v>
+      </c>
+      <c r="AI19">
+        <v>0.0001713787408840533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>-0.9935789371667335</v>
+      </c>
+      <c r="E20">
+        <v>-0.9936038872963148</v>
+      </c>
+      <c r="F20">
+        <v>-0.9908615206220438</v>
+      </c>
+      <c r="G20">
+        <v>-0.991224800451594</v>
+      </c>
+      <c r="H20">
+        <v>0.9953387174415199</v>
+      </c>
+      <c r="I20">
+        <v>0.9208335193154483</v>
+      </c>
+      <c r="J20">
+        <v>0.8597315594863635</v>
+      </c>
+      <c r="K20">
+        <v>0.1739564530090888</v>
+      </c>
+      <c r="M20">
+        <v>-0.5640175994249775</v>
+      </c>
+      <c r="N20">
+        <v>0.9954476921408194</v>
+      </c>
+      <c r="O20">
+        <v>0.9981839203022516</v>
+      </c>
+      <c r="P20">
+        <v>0.9970167657624421</v>
+      </c>
+      <c r="Q20">
+        <v>0.9951233559084989</v>
+      </c>
+      <c r="R20">
+        <v>0.9586247328059787</v>
+      </c>
+      <c r="S20">
+        <v>-0.9498517008332881</v>
+      </c>
+      <c r="T20">
+        <v>0.9856429680802117</v>
+      </c>
+      <c r="U20">
+        <v>-0.9931705211290052</v>
+      </c>
+      <c r="W20">
+        <v>0.972822180057102</v>
+      </c>
+      <c r="X20">
+        <v>0.9210417255358342</v>
+      </c>
+      <c r="Y20">
+        <v>0.9179971039169756</v>
+      </c>
+      <c r="AB20">
+        <v>-0.9327306763956776</v>
+      </c>
+      <c r="AC20">
+        <v>0.8314797465497247</v>
+      </c>
+      <c r="AD20">
+        <v>-0.9254880965982701</v>
+      </c>
+      <c r="AE20">
+        <v>-0.9338695267091255</v>
+      </c>
+      <c r="AF20">
+        <v>0.9889116193966752</v>
+      </c>
+      <c r="AG20">
+        <v>0.9897351782685948</v>
+      </c>
+      <c r="AH20">
+        <v>0.2508611210129366</v>
+      </c>
+      <c r="AI20">
+        <v>-0.9930482192357809</v>
+      </c>
+      <c r="AJ20">
+        <v>0.996142834086766</v>
+      </c>
+      <c r="AK20">
+        <v>-0.9873524248241335</v>
+      </c>
+      <c r="AL20">
+        <v>0.993170391207461</v>
+      </c>
+      <c r="AM20">
+        <v>0.9913625268942465</v>
+      </c>
+      <c r="AN20">
+        <v>0.9864717673044588</v>
+      </c>
+      <c r="AO20">
+        <v>0.9923227601214</v>
+      </c>
+      <c r="AP20">
+        <v>0.991476825818118</v>
+      </c>
+      <c r="AR20">
+        <v>0.9943409093235477</v>
+      </c>
+      <c r="AS20">
+        <v>0.9939539783476328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>9.980454689070449e-13</v>
+      </c>
+      <c r="E21">
+        <v>9.75054145525134e-13</v>
+      </c>
+      <c r="F21">
+        <v>8.24547660392431e-12</v>
+      </c>
+      <c r="G21">
+        <v>6.469242431259828e-12</v>
+      </c>
+      <c r="H21">
+        <v>1.466164386658745e-13</v>
+      </c>
+      <c r="I21">
+        <v>2.991566876555773e-06</v>
+      </c>
+      <c r="J21">
+        <v>8.072345215353467e-05</v>
+      </c>
+      <c r="K21">
+        <v>0.5520004364557236</v>
+      </c>
+      <c r="M21">
+        <v>0.0356553468454702</v>
+      </c>
+      <c r="N21">
+        <v>1.272452070347699e-13</v>
+      </c>
+      <c r="O21">
+        <v>5.159536799725503e-16</v>
+      </c>
+      <c r="P21">
+        <v>1.011202667712387e-14</v>
+      </c>
+      <c r="Q21">
+        <v>1.921656036467412e-13</v>
+      </c>
+      <c r="R21">
+        <v>6.623931920592783e-08</v>
+      </c>
+      <c r="S21">
+        <v>2.060130299552667e-07</v>
+      </c>
+      <c r="T21">
+        <v>1.225973521801877e-10</v>
+      </c>
+      <c r="U21">
+        <v>1.443620788249051e-12</v>
+      </c>
+      <c r="W21">
+        <v>5.487206663214685e-09</v>
+      </c>
+      <c r="X21">
+        <v>2.946025632536711e-06</v>
+      </c>
+      <c r="Y21">
+        <v>3.671979673087089e-06</v>
+      </c>
+      <c r="AB21">
+        <v>1.155983056385833e-06</v>
+      </c>
+      <c r="AC21">
+        <v>0.0002276033777866028</v>
+      </c>
+      <c r="AD21">
+        <v>2.101215333928284e-06</v>
+      </c>
+      <c r="AE21">
+        <v>1.046037249331083e-06</v>
+      </c>
+      <c r="AF21">
+        <v>2.62034828978381e-11</v>
+      </c>
+      <c r="AG21">
+        <v>1.652069821045004e-11</v>
+      </c>
+      <c r="AH21">
+        <v>0.3869947570912043</v>
+      </c>
+      <c r="AI21">
+        <v>1.605424960268497e-12</v>
+      </c>
+      <c r="AJ21">
+        <v>4.715302917946516e-14</v>
+      </c>
+      <c r="AK21">
+        <v>5.750903271334308e-11</v>
+      </c>
+      <c r="AL21">
+        <v>1.443785170579254e-12</v>
+      </c>
+      <c r="AM21">
+        <v>5.885187185248443e-12</v>
+      </c>
+      <c r="AN21">
+        <v>8.596368717031046e-11</v>
+      </c>
+      <c r="AO21">
+        <v>2.90781779254034e-12</v>
+      </c>
+      <c r="AP21">
+        <v>5.434441835895551e-12</v>
+      </c>
+      <c r="AR21">
+        <v>4.684891384352637e-13</v>
+      </c>
+      <c r="AS21">
+        <v>6.961084080113494e-13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22">
+        <v>0.617233986995821</v>
+      </c>
+      <c r="E22">
+        <v>0.6169687517341896</v>
+      </c>
+      <c r="F22">
+        <v>0.6473399076710089</v>
+      </c>
+      <c r="G22">
+        <v>0.6442304321625354</v>
+      </c>
+      <c r="H22">
+        <v>-0.598845591856134</v>
+      </c>
+      <c r="I22">
+        <v>-0.5582584585211949</v>
+      </c>
+      <c r="J22">
+        <v>-0.3854465707176644</v>
+      </c>
+      <c r="K22">
+        <v>0.2648216792492221</v>
+      </c>
+      <c r="N22">
+        <v>-0.54590587950574</v>
+      </c>
+      <c r="O22">
+        <v>-0.5788727759966097</v>
+      </c>
+      <c r="P22">
+        <v>-0.567842161592734</v>
+      </c>
+      <c r="Q22">
+        <v>-0.5412748430112565</v>
+      </c>
+      <c r="R22">
+        <v>-0.4985813461224222</v>
+      </c>
+      <c r="S22">
+        <v>0.507966361267979</v>
+      </c>
+      <c r="T22">
+        <v>-0.5483724778238345</v>
+      </c>
+      <c r="U22">
+        <v>0.5350183945732674</v>
+      </c>
+      <c r="W22">
+        <v>-0.5793601936036342</v>
+      </c>
+      <c r="X22">
+        <v>-0.4316590425011694</v>
+      </c>
+      <c r="Y22">
+        <v>-0.4548107348805956</v>
+      </c>
+      <c r="AB22">
+        <v>0.4788591334627011</v>
+      </c>
+      <c r="AC22">
+        <v>-0.3954581193934738</v>
+      </c>
+      <c r="AD22">
+        <v>0.4284783258579702</v>
+      </c>
+      <c r="AE22">
+        <v>0.484182831552031</v>
+      </c>
+      <c r="AF22">
+        <v>-0.5690088026823961</v>
+      </c>
+      <c r="AG22">
+        <v>-0.5652087707718751</v>
+      </c>
+      <c r="AI22">
+        <v>0.5309212131445175</v>
+      </c>
+      <c r="AJ22">
+        <v>-0.5552507508199519</v>
+      </c>
+      <c r="AK22">
+        <v>0.5610453371732657</v>
+      </c>
+      <c r="AL22">
+        <v>-0.5629925258562111</v>
+      </c>
+      <c r="AM22">
+        <v>-0.5612846638982019</v>
+      </c>
+      <c r="AN22">
+        <v>-0.5599859809368488</v>
+      </c>
+      <c r="AO22">
+        <v>-0.5621738603766754</v>
+      </c>
+      <c r="AP22">
+        <v>-0.5680645086865694</v>
+      </c>
+      <c r="AR22">
+        <v>-0.5610532120493235</v>
+      </c>
+      <c r="AS22">
+        <v>-0.5604521512617204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>0.01869025701587416</v>
+      </c>
+      <c r="E23">
+        <v>0.01875560465482818</v>
+      </c>
+      <c r="F23">
+        <v>0.01232444603404034</v>
+      </c>
+      <c r="G23">
+        <v>0.01289119926929503</v>
+      </c>
+      <c r="H23">
+        <v>0.02364577704629021</v>
+      </c>
+      <c r="I23">
+        <v>0.03800888196710526</v>
+      </c>
+      <c r="J23">
+        <v>0.1735000665395834</v>
+      </c>
+      <c r="K23">
+        <v>0.3602035152709729</v>
+      </c>
+      <c r="N23">
+        <v>0.04344033192248097</v>
+      </c>
+      <c r="O23">
+        <v>0.03008259346153928</v>
+      </c>
+      <c r="P23">
+        <v>0.03415308101495741</v>
+      </c>
+      <c r="Q23">
+        <v>0.04561613093484667</v>
+      </c>
+      <c r="R23">
+        <v>0.0695706611401832</v>
+      </c>
+      <c r="S23">
+        <v>0.06367217664008883</v>
+      </c>
+      <c r="T23">
+        <v>0.04231296271190044</v>
+      </c>
+      <c r="U23">
+        <v>0.04868058416497768</v>
+      </c>
+      <c r="W23">
+        <v>0.02991148357814141</v>
+      </c>
+      <c r="X23">
+        <v>0.1232684459089254</v>
+      </c>
+      <c r="Y23">
+        <v>0.1022676136126453</v>
+      </c>
+      <c r="AB23">
+        <v>0.08321482709040942</v>
+      </c>
+      <c r="AC23">
+        <v>0.1616472163641489</v>
+      </c>
+      <c r="AD23">
+        <v>0.1263652745019442</v>
+      </c>
+      <c r="AE23">
+        <v>0.07936083255627445</v>
+      </c>
+      <c r="AF23">
+        <v>0.03370430464460723</v>
+      </c>
+      <c r="AG23">
+        <v>0.03518232648494531</v>
+      </c>
+      <c r="AI23">
+        <v>0.05076690212095943</v>
+      </c>
+      <c r="AJ23">
+        <v>0.03928255222771084</v>
+      </c>
+      <c r="AK23">
+        <v>0.03685613023770436</v>
+      </c>
+      <c r="AL23">
+        <v>0.03606615738507989</v>
+      </c>
+      <c r="AM23">
+        <v>0.03675835366111885</v>
+      </c>
+      <c r="AN23">
+        <v>0.03729123493169326</v>
+      </c>
+      <c r="AO23">
+        <v>0.0363967501165937</v>
+      </c>
+      <c r="AP23">
+        <v>0.03406721056968139</v>
+      </c>
+      <c r="AR23">
+        <v>0.03685290991858231</v>
+      </c>
+      <c r="AS23">
+        <v>0.03709930269013645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24">
+        <v>-0.9892904878982897</v>
+      </c>
+      <c r="E24">
+        <v>-0.9893471848837124</v>
+      </c>
+      <c r="F24">
+        <v>-0.9850370801233376</v>
+      </c>
+      <c r="G24">
+        <v>-0.9857760477674371</v>
+      </c>
+      <c r="H24">
+        <v>0.983274071968664</v>
+      </c>
+      <c r="I24">
+        <v>0.8810490176920367</v>
+      </c>
+      <c r="J24">
+        <v>0.8637987211987944</v>
+      </c>
+      <c r="K24">
+        <v>0.2244297297672837</v>
+      </c>
+      <c r="O24">
+        <v>0.9900128077708871</v>
+      </c>
+      <c r="P24">
+        <v>0.996880317354781</v>
+      </c>
+      <c r="Q24">
+        <v>0.9887617962771841</v>
+      </c>
+      <c r="R24">
+        <v>0.9678933486572184</v>
+      </c>
+      <c r="S24">
+        <v>-0.9736072449981592</v>
+      </c>
+      <c r="T24">
+        <v>0.9700944662848624</v>
+      </c>
+      <c r="U24">
+        <v>-0.992732996131881</v>
+      </c>
+      <c r="W24">
+        <v>0.9468783596628788</v>
+      </c>
+      <c r="X24">
+        <v>0.9393458610870794</v>
+      </c>
+      <c r="Y24">
+        <v>0.9408490457317241</v>
+      </c>
+      <c r="AB24">
+        <v>-0.9543275563576296</v>
+      </c>
+      <c r="AC24">
+        <v>0.876090824643176</v>
+      </c>
+      <c r="AD24">
+        <v>-0.9528569562078028</v>
+      </c>
+      <c r="AE24">
+        <v>-0.959884586606647</v>
+      </c>
+      <c r="AF24">
+        <v>0.9718055130296466</v>
+      </c>
+      <c r="AG24">
+        <v>0.9735090902111532</v>
+      </c>
+      <c r="AH24">
+        <v>0.2617567833697291</v>
+      </c>
+      <c r="AI24">
+        <v>-0.9930599314750305</v>
+      </c>
+      <c r="AJ24">
+        <v>0.9880242721131222</v>
+      </c>
+      <c r="AK24">
+        <v>-0.969651940964846</v>
+      </c>
+      <c r="AL24">
+        <v>0.9800293557585927</v>
+      </c>
+      <c r="AM24">
+        <v>0.9765679084272797</v>
+      </c>
+      <c r="AN24">
+        <v>0.9683471488012031</v>
+      </c>
+      <c r="AO24">
+        <v>0.978366284261303</v>
+      </c>
+      <c r="AP24">
+        <v>0.9762549745871996</v>
+      </c>
+      <c r="AR24">
+        <v>0.9826369270752229</v>
+      </c>
+      <c r="AS24">
+        <v>0.9818040559597699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25">
+        <v>2.128739364697363e-11</v>
+      </c>
+      <c r="E25">
+        <v>2.062261339526534e-11</v>
+      </c>
+      <c r="F25">
+        <v>1.569004088914218e-10</v>
+      </c>
+      <c r="G25">
+        <v>1.159683165037146e-10</v>
+      </c>
+      <c r="H25">
+        <v>3.049413632707157e-10</v>
+      </c>
+      <c r="I25">
+        <v>3.150235044468752e-05</v>
+      </c>
+      <c r="J25">
+        <v>6.828535747464297e-05</v>
+      </c>
+      <c r="K25">
+        <v>0.4404893302829648</v>
+      </c>
+      <c r="O25">
+        <v>1.402296292562723e-11</v>
+      </c>
+      <c r="P25">
+        <v>1.32205476289179e-14</v>
+      </c>
+      <c r="Q25">
+        <v>2.839171542117439e-11</v>
+      </c>
+      <c r="R25">
+        <v>1.47568208268142e-08</v>
+      </c>
+      <c r="S25">
+        <v>4.610099905554093e-09</v>
+      </c>
+      <c r="T25">
+        <v>9.682906165151761e-09</v>
+      </c>
+      <c r="U25">
+        <v>2.093397863025599e-12</v>
+      </c>
+      <c r="W25">
+        <v>2.891758973350417e-07</v>
+      </c>
+      <c r="X25">
+        <v>6.302693118593758e-07</v>
+      </c>
+      <c r="Y25">
+        <v>5.439594870934235e-07</v>
+      </c>
+      <c r="AB25">
+        <v>1.187211228656713e-07</v>
+      </c>
+      <c r="AC25">
+        <v>3.980263624049865e-05</v>
+      </c>
+      <c r="AD25">
+        <v>1.431245994977614e-07</v>
+      </c>
+      <c r="AE25">
+        <v>5.517344642506695e-08</v>
+      </c>
+      <c r="AF25">
+        <v>6.824836692095713e-09</v>
+      </c>
+      <c r="AG25">
+        <v>4.712929227232641e-09</v>
+      </c>
+      <c r="AH25">
+        <v>0.3659965658106093</v>
+      </c>
+      <c r="AI25">
+        <v>1.589304405919786e-12</v>
+      </c>
+      <c r="AJ25">
+        <v>4.150804138462234e-11</v>
+      </c>
+      <c r="AK25">
+        <v>1.056489407180761e-08</v>
+      </c>
+      <c r="AL25">
+        <v>8.773763213680939e-10</v>
+      </c>
+      <c r="AM25">
+        <v>2.272222185368205e-09</v>
+      </c>
+      <c r="AN25">
+        <v>1.356211482258545e-08</v>
+      </c>
+      <c r="AO25">
+        <v>1.412731821239533e-09</v>
+      </c>
+      <c r="AP25">
+        <v>2.458817787810492e-09</v>
+      </c>
+      <c r="AR25">
+        <v>3.810988079610644e-10</v>
+      </c>
+      <c r="AS25">
+        <v>5.039008226542755e-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>-0.9920976197424033</v>
+      </c>
+      <c r="E26">
+        <v>-0.9921134011690098</v>
+      </c>
+      <c r="F26">
+        <v>-0.9923247738381158</v>
+      </c>
+      <c r="G26">
+        <v>-0.9925779380625491</v>
+      </c>
+      <c r="H26">
+        <v>0.997456421718028</v>
+      </c>
+      <c r="I26">
+        <v>0.9321098677930884</v>
+      </c>
+      <c r="J26">
+        <v>0.8497097717028249</v>
+      </c>
+      <c r="K26">
+        <v>0.1416243250313035</v>
+      </c>
+      <c r="R26">
+        <v>0.9537258687990668</v>
+      </c>
+      <c r="S26">
+        <v>-0.9411799236070281</v>
+      </c>
+      <c r="T26">
+        <v>0.9897033895391406</v>
+      </c>
+      <c r="U26">
+        <v>-0.9918694545120673</v>
+      </c>
+      <c r="W26">
+        <v>0.979634508615988</v>
+      </c>
+      <c r="X26">
+        <v>0.9152705388660408</v>
+      </c>
+      <c r="Y26">
+        <v>0.9123139710168282</v>
+      </c>
+      <c r="AB26">
+        <v>-0.9249700082829296</v>
+      </c>
+      <c r="AC26">
+        <v>0.8163375407891088</v>
+      </c>
+      <c r="AD26">
+        <v>-0.9153552645224241</v>
+      </c>
+      <c r="AE26">
+        <v>-0.9235344411561969</v>
+      </c>
+      <c r="AF26">
+        <v>0.9929674399626275</v>
+      </c>
+      <c r="AG26">
+        <v>0.9935526910598788</v>
+      </c>
+      <c r="AH26">
+        <v>0.2614448048944105</v>
+      </c>
+      <c r="AI26">
+        <v>-0.9915042765836583</v>
+      </c>
+      <c r="AJ26">
+        <v>0.9972629739617748</v>
+      </c>
+      <c r="AK26">
+        <v>-0.9919251675780075</v>
+      </c>
+      <c r="AL26">
+        <v>0.9960650189782025</v>
+      </c>
+      <c r="AM26">
+        <v>0.994768437048252</v>
+      </c>
+      <c r="AN26">
+        <v>0.9913297130028502</v>
+      </c>
+      <c r="AO26">
+        <v>0.995469466528299</v>
+      </c>
+      <c r="AP26">
+        <v>0.9948133409677866</v>
+      </c>
+      <c r="AR26">
+        <v>0.9967130319080945</v>
+      </c>
+      <c r="AS26">
+        <v>0.9964615541388694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27">
+        <v>3.456797218511323e-12</v>
+      </c>
+      <c r="E27">
+        <v>3.415699007789896e-12</v>
+      </c>
+      <c r="F27">
+        <v>2.903257087381253e-12</v>
+      </c>
+      <c r="G27">
+        <v>2.375320158604357e-12</v>
+      </c>
+      <c r="H27">
+        <v>3.888609473946285e-15</v>
+      </c>
+      <c r="I27">
+        <v>1.2198195496053e-06</v>
+      </c>
+      <c r="J27">
+        <v>0.0001193818389680417</v>
+      </c>
+      <c r="K27">
+        <v>0.6291305325489851</v>
+      </c>
+      <c r="R27">
+        <v>1.282513436021168e-07</v>
+      </c>
+      <c r="S27">
+        <v>5.263380102972036e-07</v>
+      </c>
+      <c r="T27">
+        <v>1.682890750489788e-11</v>
+      </c>
+      <c r="U27">
+        <v>4.098561499450309e-12</v>
+      </c>
+      <c r="W27">
+        <v>9.858990084405129e-10</v>
+      </c>
+      <c r="X27">
+        <v>4.441287212285933e-06</v>
+      </c>
+      <c r="Y27">
+        <v>5.420472716320201e-06</v>
+      </c>
+      <c r="AB27">
+        <v>2.187909373020959e-06</v>
+      </c>
+      <c r="AC27">
+        <v>0.0003683502068717557</v>
+      </c>
+      <c r="AD27">
+        <v>4.415536249705746e-06</v>
+      </c>
+      <c r="AE27">
+        <v>2.443646367325679e-06</v>
+      </c>
+      <c r="AF27">
+        <v>1.720358327619254e-12</v>
+      </c>
+      <c r="AG27">
+        <v>1.022716371728262e-12</v>
+      </c>
+      <c r="AH27">
+        <v>0.3665890595503569</v>
+      </c>
+      <c r="AI27">
+        <v>5.330581468544259e-12</v>
+      </c>
+      <c r="AJ27">
+        <v>6.03416302982845e-15</v>
+      </c>
+      <c r="AK27">
+        <v>3.933385163157989e-12</v>
+      </c>
+      <c r="AL27">
+        <v>5.314751968469809e-14</v>
+      </c>
+      <c r="AM27">
+        <v>2.926894488076198e-13</v>
+      </c>
+      <c r="AN27">
+        <v>6.02019044973639e-12</v>
+      </c>
+      <c r="AO27">
+        <v>1.236425764240448e-13</v>
+      </c>
+      <c r="AP27">
+        <v>2.77962622212141e-13</v>
+      </c>
+      <c r="AR27">
+        <v>1.808023185705686e-14</v>
+      </c>
+      <c r="AS27">
+        <v>2.812367369046533e-14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>-0.9915133116235598</v>
+      </c>
+      <c r="E28">
+        <v>-0.991558525109817</v>
+      </c>
+      <c r="F28">
+        <v>-0.9910462052267208</v>
+      </c>
+      <c r="G28">
+        <v>-0.9916474751477246</v>
+      </c>
+      <c r="H28">
+        <v>0.9899798015824627</v>
+      </c>
+      <c r="I28">
+        <v>0.8988805297712903</v>
+      </c>
+      <c r="J28">
+        <v>0.8545910336505199</v>
+      </c>
+      <c r="K28">
+        <v>0.1839598824289635</v>
+      </c>
+      <c r="O28">
+        <v>0.996330323667568</v>
+      </c>
+      <c r="Q28">
+        <v>0.9922769148729574</v>
+      </c>
+      <c r="R28">
+        <v>0.9650744354329118</v>
+      </c>
+      <c r="S28">
+        <v>-0.966313223699458</v>
+      </c>
+      <c r="T28">
+        <v>0.9790297702723672</v>
+      </c>
+      <c r="U28">
+        <v>-0.9948815444172076</v>
+      </c>
+      <c r="W28">
+        <v>0.9593177908215028</v>
+      </c>
+      <c r="X28">
+        <v>0.935409556769167</v>
+      </c>
+      <c r="Y28">
+        <v>0.9371737557684062</v>
+      </c>
+      <c r="AB28">
+        <v>-0.9478325134572849</v>
+      </c>
+      <c r="AC28">
+        <v>0.8596411320534512</v>
+      </c>
+      <c r="AD28">
+        <v>-0.9432325469288819</v>
+      </c>
+      <c r="AE28">
+        <v>-0.9500184693233572</v>
+      </c>
+      <c r="AF28">
+        <v>0.9808077229276566</v>
+      </c>
+      <c r="AG28">
+        <v>0.9822031786683487</v>
+      </c>
+      <c r="AH28">
+        <v>0.2783937458275</v>
+      </c>
+      <c r="AI28">
+        <v>-0.9948757436859038</v>
+      </c>
+      <c r="AJ28">
+        <v>0.9932815327034962</v>
+      </c>
+      <c r="AK28">
+        <v>-0.9793332904539228</v>
+      </c>
+      <c r="AL28">
+        <v>0.9875604731289874</v>
+      </c>
+      <c r="AM28">
+        <v>0.9847455071513046</v>
+      </c>
+      <c r="AN28">
+        <v>0.9784073244549917</v>
+      </c>
+      <c r="AO28">
+        <v>0.9862162929036289</v>
+      </c>
+      <c r="AP28">
+        <v>0.9843235205283506</v>
+      </c>
+      <c r="AR28">
+        <v>0.9894984119114422</v>
+      </c>
+      <c r="AS28">
+        <v>0.9888372314909109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29">
+        <v>5.296760834012204e-12</v>
+      </c>
+      <c r="E29">
+        <v>5.130185222426074e-12</v>
+      </c>
+      <c r="F29">
+        <v>7.29772422897844e-12</v>
+      </c>
+      <c r="G29">
+        <v>4.815182591566696e-12</v>
+      </c>
+      <c r="H29">
+        <v>1.430231774303069e-11</v>
+      </c>
+      <c r="I29">
+        <v>1.237322740721106e-05</v>
+      </c>
+      <c r="J29">
+        <v>9.901959998081917e-05</v>
+      </c>
+      <c r="K29">
+        <v>0.5289888357654494</v>
+      </c>
+      <c r="O29">
+        <v>3.498170590503008e-14</v>
+      </c>
+      <c r="Q29">
+        <v>3.013274268718495e-12</v>
+      </c>
+      <c r="R29">
+        <v>2.430104986863508e-08</v>
+      </c>
+      <c r="S29">
+        <v>1.961958046094123e-08</v>
+      </c>
+      <c r="T29">
+        <v>1.173585699267061e-09</v>
+      </c>
+      <c r="U29">
+        <v>2.567777814653154e-13</v>
+      </c>
+      <c r="W29">
+        <v>5.994509969124015e-08</v>
+      </c>
+      <c r="X29">
+        <v>9.112085455506922e-07</v>
+      </c>
+      <c r="Y29">
+        <v>7.747089956119125e-07</v>
+      </c>
+      <c r="AB29">
+        <v>2.599198023485127e-07</v>
+      </c>
+      <c r="AC29">
+        <v>8.101958854659612e-05</v>
+      </c>
+      <c r="AD29">
+        <v>4.272304090391226e-07</v>
+      </c>
+      <c r="AE29">
+        <v>2.02010088790584e-07</v>
+      </c>
+      <c r="AF29">
+        <v>6.923448551282039e-10</v>
+      </c>
+      <c r="AG29">
+        <v>4.414954508084958e-10</v>
+      </c>
+      <c r="AH29">
+        <v>0.3351586526705542</v>
+      </c>
+      <c r="AI29">
+        <v>2.585255490994798e-13</v>
+      </c>
+      <c r="AJ29">
+        <v>1.308737552609616e-12</v>
+      </c>
+      <c r="AK29">
+        <v>1.075990623704291e-09</v>
+      </c>
+      <c r="AL29">
+        <v>5.208470345385609e-11</v>
+      </c>
+      <c r="AM29">
+        <v>1.760514673732531e-10</v>
+      </c>
+      <c r="AN29">
+        <v>1.396851660381389e-09</v>
+      </c>
+      <c r="AO29">
+        <v>9.612267026324e-11</v>
+      </c>
+      <c r="AP29">
+        <v>2.07180617611643e-10</v>
+      </c>
+      <c r="AR29">
+        <v>1.893339794923556e-11</v>
+      </c>
+      <c r="AS29">
+        <v>2.727170267311209e-11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30">
+        <v>-0.980873140218408</v>
+      </c>
+      <c r="E30">
+        <v>-0.9809259025085468</v>
+      </c>
+      <c r="F30">
+        <v>-0.9809349758108828</v>
+      </c>
+      <c r="G30">
+        <v>-0.9816244174188111</v>
+      </c>
+      <c r="H30">
+        <v>0.9893519358492341</v>
+      </c>
+      <c r="I30">
+        <v>0.9316831920767707</v>
+      </c>
+      <c r="J30">
+        <v>0.8325132234369974</v>
+      </c>
+      <c r="K30">
+        <v>0.1447496779845724</v>
+      </c>
+      <c r="O30">
+        <v>0.9949956115486523</v>
+      </c>
+      <c r="R30">
+        <v>0.9665471175073255</v>
+      </c>
+      <c r="S30">
+        <v>-0.9418935676435645</v>
+      </c>
+      <c r="T30">
+        <v>0.9940956796378676</v>
+      </c>
+      <c r="U30">
+        <v>-0.9963950961184118</v>
+      </c>
+      <c r="W30">
+        <v>0.9761963887693654</v>
+      </c>
+      <c r="X30">
+        <v>0.9367277297794677</v>
+      </c>
+      <c r="Y30">
+        <v>0.9280300037388599</v>
+      </c>
+      <c r="AB30">
+        <v>-0.9426967551140517</v>
+      </c>
+      <c r="AC30">
+        <v>0.8339566585132584</v>
+      </c>
+      <c r="AD30">
+        <v>-0.9306282701653522</v>
+      </c>
+      <c r="AE30">
+        <v>-0.9372121992375237</v>
+      </c>
+      <c r="AF30">
+        <v>0.9927013203882177</v>
+      </c>
+      <c r="AG30">
+        <v>0.9937594005736879</v>
+      </c>
+      <c r="AH30">
+        <v>0.2545488277338704</v>
+      </c>
+      <c r="AI30">
+        <v>-0.9964142986945577</v>
+      </c>
+      <c r="AJ30">
+        <v>0.9988543710248174</v>
+      </c>
+      <c r="AK30">
+        <v>-0.9919344955395281</v>
+      </c>
+      <c r="AL30">
+        <v>0.9965188514244027</v>
+      </c>
+      <c r="AM30">
+        <v>0.995230848266681</v>
+      </c>
+      <c r="AN30">
+        <v>0.9912539905072428</v>
+      </c>
+      <c r="AO30">
+        <v>0.9959279946155096</v>
+      </c>
+      <c r="AP30">
+        <v>0.9946378976190688</v>
+      </c>
+      <c r="AR30">
+        <v>0.9974858842424391</v>
+      </c>
+      <c r="AS30">
+        <v>0.99724718452461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31">
+        <v>6.784015409948498e-10</v>
+      </c>
+      <c r="E31">
+        <v>6.673263024466846e-10</v>
+      </c>
+      <c r="F31">
+        <v>6.654369702865062e-10</v>
+      </c>
+      <c r="G31">
+        <v>5.342885016131737e-10</v>
+      </c>
+      <c r="H31">
+        <v>2.056770125057555e-11</v>
+      </c>
+      <c r="I31">
+        <v>1.265357101990519e-06</v>
+      </c>
+      <c r="J31">
+        <v>0.0002198762209047163</v>
+      </c>
+      <c r="K31">
+        <v>0.6215025892167403</v>
+      </c>
+      <c r="O31">
+        <v>2.243552589356389e-13</v>
+      </c>
+      <c r="R31">
+        <v>1.882586080987879e-08</v>
+      </c>
+      <c r="S31">
+        <v>4.899324407434716e-07</v>
+      </c>
+      <c r="T31">
+        <v>6.039630298375191e-13</v>
+      </c>
+      <c r="U31">
+        <v>3.144104132218546e-14</v>
+      </c>
+      <c r="W31">
+        <v>2.495126509459427e-09</v>
+      </c>
+      <c r="X31">
+        <v>8.075081651013681e-07</v>
+      </c>
+      <c r="Y31">
+        <v>1.715777089713815e-06</v>
+      </c>
+      <c r="AB31">
+        <v>4.514721595764356e-07</v>
+      </c>
+      <c r="AC31">
+        <v>0.0002094403755727629</v>
+      </c>
+      <c r="AD31">
+        <v>1.383993113181526e-06</v>
+      </c>
+      <c r="AE31">
+        <v>7.719342611920087e-07</v>
+      </c>
+      <c r="AF31">
+        <v>2.148600463565694e-12</v>
+      </c>
+      <c r="AG31">
+        <v>8.414629788281266e-13</v>
+      </c>
+      <c r="AH31">
+        <v>0.3798175923205053</v>
+      </c>
+      <c r="AI31">
+        <v>3.045070388163329e-14</v>
+      </c>
+      <c r="AJ31">
+        <v>3.256038526041628e-17</v>
+      </c>
+      <c r="AK31">
+        <v>3.906279273270579e-12</v>
+      </c>
+      <c r="AL31">
+        <v>2.550265945484021e-14</v>
+      </c>
+      <c r="AM31">
+        <v>1.681497996657444e-13</v>
+      </c>
+      <c r="AN31">
+        <v>6.341592694653545e-12</v>
+      </c>
+      <c r="AO31">
+        <v>6.524533876492433e-14</v>
+      </c>
+      <c r="AP31">
+        <v>3.392401193986844e-13</v>
+      </c>
+      <c r="AR31">
+        <v>3.62629179482497e-15</v>
+      </c>
+      <c r="AS31">
+        <v>6.245847296433341e-15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>-0.9418011835472336</v>
+      </c>
+      <c r="E32">
+        <v>-0.9419496880530983</v>
+      </c>
+      <c r="F32">
+        <v>-0.9355352920567529</v>
+      </c>
+      <c r="G32">
+        <v>-0.9373569429914983</v>
+      </c>
+      <c r="H32">
+        <v>0.9396694381044598</v>
+      </c>
+      <c r="I32">
+        <v>0.8359423779247815</v>
+      </c>
+      <c r="J32">
+        <v>0.8337936319454133</v>
+      </c>
+      <c r="K32">
+        <v>0.275094454863685</v>
+      </c>
+      <c r="T32">
+        <v>0.9479332027072227</v>
+      </c>
+      <c r="U32">
+        <v>-0.9791737272921205</v>
+      </c>
+      <c r="W32">
+        <v>0.9047235099650913</v>
+      </c>
+      <c r="AB32">
+        <v>-0.9728180127753061</v>
+      </c>
+      <c r="AC32">
+        <v>0.8985001278589789</v>
+      </c>
+      <c r="AH32">
+        <v>0.3848868830360647</v>
+      </c>
+      <c r="AI32">
+        <v>-0.9792509666851926</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45">
+      <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>4.945245624267331e-07</v>
+      </c>
+      <c r="E33">
+        <v>4.871601097299563e-07</v>
+      </c>
+      <c r="F33">
+        <v>9.008663346092191e-07</v>
+      </c>
+      <c r="G33">
+        <v>7.615605546945859e-07</v>
+      </c>
+      <c r="H33">
+        <v>6.107959795748434e-07</v>
+      </c>
+      <c r="I33">
+        <v>0.0001957423881443387</v>
+      </c>
+      <c r="J33">
+        <v>0.0002105985495995345</v>
+      </c>
+      <c r="K33">
+        <v>0.3411550774787952</v>
+      </c>
+      <c r="T33">
+        <v>2.569808349350122e-07</v>
+      </c>
+      <c r="U33">
+        <v>1.126419250557539e-09</v>
+      </c>
+      <c r="W33">
+        <v>8.770884255789377e-06</v>
+      </c>
+      <c r="AB33">
+        <v>5.492207274790055e-09</v>
+      </c>
+      <c r="AC33">
+        <v>1.264441237831032e-05</v>
+      </c>
+      <c r="AH33">
+        <v>0.1741788575928736</v>
+      </c>
+      <c r="AI33">
+        <v>1.101768721749875e-09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45">
+      <c r="A34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34">
+        <v>0.9468958918993107</v>
+      </c>
+      <c r="E34">
+        <v>0.9470295360228734</v>
+      </c>
+      <c r="F34">
+        <v>0.9420654359020871</v>
+      </c>
+      <c r="G34">
+        <v>0.9437110291357781</v>
+      </c>
+      <c r="H34">
+        <v>-0.9244335621907459</v>
+      </c>
+      <c r="I34">
+        <v>-0.7614147473261325</v>
+      </c>
+      <c r="J34">
+        <v>-0.8334173321093542</v>
+      </c>
+      <c r="K34">
+        <v>-0.3066161261546546</v>
+      </c>
+      <c r="R34">
+        <v>-0.9606898848863027</v>
+      </c>
+      <c r="T34">
+        <v>-0.9062662289352366</v>
+      </c>
+      <c r="U34">
+        <v>0.9624423834762724</v>
+      </c>
+      <c r="W34">
+        <v>-0.8568802854833993</v>
+      </c>
+      <c r="AB34">
+        <v>0.9783294215895127</v>
+      </c>
+      <c r="AC34">
+        <v>-0.9543365907150927</v>
+      </c>
+      <c r="AH34">
+        <v>-0.3214931438090753</v>
+      </c>
+      <c r="AI34">
+        <v>0.9633841122649865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <v>2.886148060654773e-07</v>
+      </c>
+      <c r="E35">
+        <v>2.843672422160142e-07</v>
+      </c>
+      <c r="F35">
+        <v>4.814831089722906e-07</v>
+      </c>
+      <c r="G35">
+        <v>4.065003483223121e-07</v>
+      </c>
+      <c r="H35">
+        <v>2.280758238112498e-06</v>
+      </c>
+      <c r="I35">
+        <v>0.00155713483526332</v>
+      </c>
+      <c r="J35">
+        <v>0.0002132916547346095</v>
+      </c>
+      <c r="K35">
+        <v>0.2863130592780627</v>
+      </c>
+      <c r="R35">
+        <v>4.8938388216403e-08</v>
+      </c>
+      <c r="T35">
+        <v>7.979876659731034e-06</v>
+      </c>
+      <c r="U35">
+        <v>3.736524102136941e-08</v>
+      </c>
+      <c r="W35">
+        <v>9.049573927152179e-05</v>
+      </c>
+      <c r="AB35">
+        <v>1.42712309455325e-09</v>
+      </c>
+      <c r="AC35">
+        <v>1.185826263600777e-07</v>
+      </c>
+      <c r="AH35">
+        <v>0.2623513192806072</v>
+      </c>
+      <c r="AI35">
+        <v>3.215040059549672e-08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36">
+        <v>0.986751185091319</v>
+      </c>
+      <c r="I36">
+        <v>0.9609080206419476</v>
+      </c>
+      <c r="J36">
+        <v>0.8025994907056604</v>
+      </c>
+      <c r="U36">
+        <v>-0.9854484526807092</v>
+      </c>
+      <c r="W36">
+        <v>0.9893825309775814</v>
+      </c>
+      <c r="AB36">
+        <v>-0.9148750322996052</v>
+      </c>
+      <c r="AC36">
+        <v>0.7832468532852852</v>
+      </c>
+      <c r="AI36">
+        <v>-0.9851953448949612</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37">
+        <v>7.589134540029341e-11</v>
+      </c>
+      <c r="I37">
+        <v>4.735391662996519e-08</v>
+      </c>
+      <c r="J37">
+        <v>0.0005500741842616722</v>
+      </c>
+      <c r="U37">
+        <v>1.32851387698585e-10</v>
+      </c>
+      <c r="W37">
+        <v>2.021698595358964e-11</v>
+      </c>
+      <c r="AB37">
+        <v>4.563134196183348e-06</v>
+      </c>
+      <c r="AC37">
+        <v>0.0009215956922442847</v>
+      </c>
+      <c r="AI37">
+        <v>1.472529116384828e-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45">
+      <c r="A38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>-0.1905859934359711</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39">
+        <v>0.5139842991879462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40">
+        <v>-0.9061870584020661</v>
+      </c>
+      <c r="C40">
+        <v>-0.9061883303586397</v>
+      </c>
+      <c r="D40">
+        <v>-0.9601582759251893</v>
+      </c>
+      <c r="E40">
+        <v>-0.9601077115233444</v>
+      </c>
+      <c r="F40">
+        <v>-0.963441738245625</v>
+      </c>
+      <c r="G40">
+        <v>-0.9629071079136231</v>
+      </c>
+      <c r="H40">
+        <v>0.9833381121628629</v>
+      </c>
+      <c r="I40">
+        <v>0.9864394974677458</v>
+      </c>
+      <c r="J40">
+        <v>0.8000583494976063</v>
+      </c>
+      <c r="L40">
+        <v>0.9703689549163639</v>
+      </c>
+      <c r="M40">
+        <v>-0.5782486709928264</v>
+      </c>
+      <c r="N40">
+        <v>0.943341596991416</v>
+      </c>
+      <c r="O40">
+        <v>0.9775075872753005</v>
+      </c>
+      <c r="P40">
+        <v>0.9562061301766949</v>
+      </c>
+      <c r="Q40">
+        <v>0.9734110259472865</v>
+      </c>
+      <c r="R40">
+        <v>0.8995954213345113</v>
+      </c>
+      <c r="S40">
+        <v>-0.8509590638410713</v>
+      </c>
+      <c r="T40">
+        <v>0.987620499994022</v>
+      </c>
+      <c r="U40">
+        <v>-0.9555068235398765</v>
+      </c>
+      <c r="V40">
+        <v>0.9962134527026446</v>
+      </c>
+      <c r="W40">
+        <v>0.9998981214530925</v>
+      </c>
+      <c r="X40">
+        <v>0.8433303146718861</v>
+      </c>
+      <c r="Y40">
+        <v>0.8282032964770071</v>
+      </c>
+      <c r="Z40">
+        <v>-0.8348727386876713</v>
+      </c>
+      <c r="AA40">
+        <v>-0.8569598819997629</v>
+      </c>
+      <c r="AB40">
+        <v>-0.8453212628126164</v>
+      </c>
+      <c r="AC40">
+        <v>0.6912419449218146</v>
+      </c>
+      <c r="AD40">
+        <v>-0.823816663236032</v>
+      </c>
+      <c r="AE40">
+        <v>-0.8347256035388086</v>
+      </c>
+      <c r="AF40">
+        <v>0.99294184783822</v>
+      </c>
+      <c r="AG40">
+        <v>0.9916657294315033</v>
+      </c>
+      <c r="AH40">
+        <v>0.1938375026013957</v>
+      </c>
+      <c r="AI40">
+        <v>-0.9545210714091334</v>
+      </c>
+      <c r="AJ40">
+        <v>0.9775001946750558</v>
+      </c>
+      <c r="AK40">
+        <v>-0.9929265616264011</v>
+      </c>
+      <c r="AL40">
+        <v>0.9871764467178525</v>
+      </c>
+      <c r="AM40">
+        <v>0.9895944020176364</v>
+      </c>
+      <c r="AN40">
+        <v>0.9930669470203104</v>
+      </c>
+      <c r="AO40">
+        <v>0.9884112246479723</v>
+      </c>
+      <c r="AP40">
+        <v>0.9907799947840312</v>
+      </c>
+      <c r="AQ40">
+        <v>-0.9933477749951074</v>
+      </c>
+      <c r="AR40">
+        <v>0.9847172367462208</v>
+      </c>
+      <c r="AS40">
+        <v>0.9854647794639747</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41">
+        <v>8.018990192703153e-06</v>
+      </c>
+      <c r="C41">
+        <v>8.018360551833644e-06</v>
+      </c>
+      <c r="D41">
+        <v>5.298463911262361e-08</v>
+      </c>
+      <c r="E41">
+        <v>5.338351199681044e-08</v>
+      </c>
+      <c r="F41">
+        <v>3.185199351689692e-08</v>
+      </c>
+      <c r="G41">
+        <v>3.471064902051347e-08</v>
+      </c>
+      <c r="H41">
+        <v>2.980438916305384e-10</v>
+      </c>
+      <c r="I41">
+        <v>8.719531662714348e-11</v>
+      </c>
+      <c r="J41">
+        <v>0.0005904576920973187</v>
+      </c>
+      <c r="L41">
+        <v>9.167198999999716e-09</v>
+      </c>
+      <c r="M41">
+        <v>0.03030275059258435</v>
+      </c>
+      <c r="N41">
+        <v>4.224306925205893e-07</v>
+      </c>
+      <c r="O41">
+        <v>1.781078943788539e-09</v>
+      </c>
+      <c r="P41">
+        <v>9.265351450729493e-08</v>
+      </c>
+      <c r="Q41">
+        <v>4.817557814873918e-09</v>
+      </c>
+      <c r="R41">
+        <v>1.187648567984501e-05</v>
+      </c>
+      <c r="S41">
+        <v>0.0001138732750693927</v>
+      </c>
+      <c r="T41">
+        <v>5.060131264698967e-11</v>
+      </c>
+      <c r="U41">
+        <v>1.017372928820574e-07</v>
+      </c>
+      <c r="V41">
+        <v>4.221101653680397e-14</v>
+      </c>
+      <c r="W41">
+        <v>1.613963229170139e-23</v>
+      </c>
+      <c r="X41">
+        <v>0.0001509904094963454</v>
+      </c>
+      <c r="Y41">
+        <v>0.0002535652686872159</v>
+      </c>
+      <c r="Z41">
+        <v>0.0002030278081592098</v>
+      </c>
+      <c r="AA41">
+        <v>9.021047533258741e-05</v>
+      </c>
+      <c r="AB41">
+        <v>0.0001404738930466941</v>
+      </c>
+      <c r="AC41">
+        <v>0.00618227400523982</v>
+      </c>
+      <c r="AD41">
+        <v>0.0002920190739740374</v>
+      </c>
+      <c r="AE41">
+        <v>0.0002040469009130564</v>
+      </c>
+      <c r="AF41">
+        <v>1.758168282632567e-12</v>
+      </c>
+      <c r="AG41">
+        <v>4.752572143435295e-12</v>
+      </c>
+      <c r="AH41">
+        <v>0.5066925533249174</v>
+      </c>
+      <c r="AI41">
+        <v>1.157836455038254e-07</v>
+      </c>
+      <c r="AJ41">
+        <v>1.784565641555554e-09</v>
+      </c>
+      <c r="AK41">
+        <v>1.781080381479346e-12</v>
+      </c>
+      <c r="AL41">
+        <v>6.245657091216828e-11</v>
+      </c>
+      <c r="AM41">
+        <v>1.792217208612513e-11</v>
+      </c>
+      <c r="AN41">
+        <v>1.579713013666981e-12</v>
+      </c>
+      <c r="AO41">
+        <v>3.411204636689786e-11</v>
+      </c>
+      <c r="AP41">
+        <v>8.695268607670559e-12</v>
+      </c>
+      <c r="AQ41">
+        <v>1.233373777819042e-12</v>
+      </c>
+      <c r="AR41">
+        <v>1.780073161308139e-10</v>
+      </c>
+      <c r="AS41">
+        <v>1.319641832734676e-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45">
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42">
+        <v>-0.9377524143808614</v>
+      </c>
+      <c r="C42">
+        <v>-0.9377534806810612</v>
+      </c>
+      <c r="D42">
+        <v>-0.9757383575394427</v>
+      </c>
+      <c r="E42">
+        <v>-0.9757158203268799</v>
+      </c>
+      <c r="F42">
+        <v>-0.9793410394506142</v>
+      </c>
+      <c r="G42">
+        <v>-0.979138424810177</v>
+      </c>
+      <c r="H42">
+        <v>0.9922543461006974</v>
+      </c>
+      <c r="I42">
+        <v>0.9711919109778141</v>
+      </c>
+      <c r="J42">
+        <v>0.8111799992425501</v>
+      </c>
+      <c r="L42">
+        <v>0.9856917777199417</v>
+      </c>
+      <c r="M42">
+        <v>-0.5866747075247554</v>
+      </c>
+      <c r="N42">
+        <v>0.9662815938244628</v>
+      </c>
+      <c r="O42">
+        <v>0.9904026600808195</v>
+      </c>
+      <c r="P42">
+        <v>0.9760642095385584</v>
+      </c>
+      <c r="Q42">
+        <v>0.9884184229589483</v>
+      </c>
+      <c r="R42">
+        <v>0.9289172764288183</v>
+      </c>
+      <c r="S42">
+        <v>-0.8909279698962264</v>
+      </c>
+      <c r="T42">
+        <v>0.9951166743841556</v>
+      </c>
+      <c r="U42">
+        <v>-0.9758831946750762</v>
+      </c>
+      <c r="W42">
+        <v>0.9972408255764719</v>
+      </c>
+      <c r="X42">
+        <v>0.8806402692386942</v>
+      </c>
+      <c r="Y42">
+        <v>0.8704593019284121</v>
+      </c>
+      <c r="Z42">
+        <v>-0.8753965918628711</v>
+      </c>
+      <c r="AA42">
+        <v>-0.896030131333666</v>
+      </c>
+      <c r="AB42">
+        <v>-0.8860088350716313</v>
+      </c>
+      <c r="AC42">
+        <v>0.7498232427644889</v>
+      </c>
+      <c r="AD42">
+        <v>-0.8674611939558121</v>
+      </c>
+      <c r="AE42">
+        <v>-0.8780291673316645</v>
+      </c>
+      <c r="AF42">
+        <v>0.9985446414970428</v>
+      </c>
+      <c r="AG42">
+        <v>0.9980697482660729</v>
+      </c>
+      <c r="AH42">
+        <v>0.2087289442117526</v>
+      </c>
+      <c r="AI42">
+        <v>-0.975187373238882</v>
+      </c>
+      <c r="AJ42">
+        <v>0.9910519876585575</v>
+      </c>
+      <c r="AK42">
+        <v>-0.9979150285057967</v>
+      </c>
+      <c r="AL42">
+        <v>0.9963244969168044</v>
+      </c>
+      <c r="AM42">
+        <v>0.9972054067641127</v>
+      </c>
+      <c r="AN42">
+        <v>0.9976559291340761</v>
+      </c>
+      <c r="AO42">
+        <v>0.9968022615867873</v>
+      </c>
+      <c r="AP42">
+        <v>0.998050861562163</v>
+      </c>
+      <c r="AQ42">
+        <v>-0.9975106497794327</v>
+      </c>
+      <c r="AR42">
+        <v>0.9951298274158299</v>
+      </c>
+      <c r="AS42">
+        <v>0.99546107941682</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43">
+        <v>7.338023700922139e-07</v>
+      </c>
+      <c r="C43">
+        <v>7.337286715753155e-07</v>
+      </c>
+      <c r="D43">
+        <v>2.794643103380885e-09</v>
+      </c>
+      <c r="E43">
+        <v>2.81011836031356e-09</v>
+      </c>
+      <c r="F43">
+        <v>1.073590203717564e-09</v>
+      </c>
+      <c r="G43">
+        <v>1.137837437241609e-09</v>
+      </c>
+      <c r="H43">
+        <v>3.066346219744253e-12</v>
+      </c>
+      <c r="I43">
+        <v>7.755615926022124e-09</v>
+      </c>
+      <c r="J43">
+        <v>0.0004297860701269565</v>
+      </c>
+      <c r="L43">
+        <v>1.201303785859478e-10</v>
+      </c>
+      <c r="M43">
+        <v>0.02742982287193196</v>
+      </c>
+      <c r="N43">
+        <v>1.972901478250299e-08</v>
+      </c>
+      <c r="O43">
+        <v>1.105220170103834e-11</v>
+      </c>
+      <c r="P43">
+        <v>2.578682967047948e-09</v>
+      </c>
+      <c r="Q43">
+        <v>3.398563905701963e-11</v>
+      </c>
+      <c r="R43">
+        <v>1.595827121263062e-06</v>
+      </c>
+      <c r="S43">
+        <v>1.914419001731272e-05</v>
+      </c>
+      <c r="T43">
+        <v>1.937479698425132e-13</v>
+      </c>
+      <c r="U43">
+        <v>2.696869370330742e-09</v>
+      </c>
+      <c r="W43">
+        <v>6.332829056323753e-15</v>
+      </c>
+      <c r="X43">
+        <v>3.212793420814091e-05</v>
+      </c>
+      <c r="Y43">
+        <v>5.131154179089247e-05</v>
+      </c>
+      <c r="Z43">
+        <v>4.109524560018601e-05</v>
+      </c>
+      <c r="AA43">
+        <v>1.452632988387854e-05</v>
+      </c>
+      <c r="AB43">
+        <v>2.46716089541789e-05</v>
+      </c>
+      <c r="AC43">
+        <v>0.002013873708533597</v>
+      </c>
+      <c r="AD43">
+        <v>5.846495512807573e-05</v>
+      </c>
+      <c r="AE43">
+        <v>3.636819310701267e-05</v>
+      </c>
+      <c r="AF43">
+        <v>1.367593833054953e-16</v>
+      </c>
+      <c r="AG43">
+        <v>7.436672755925776e-16</v>
+      </c>
+      <c r="AH43">
+        <v>0.4739137260898553</v>
+      </c>
+      <c r="AI43">
+        <v>3.193918814364903e-09</v>
+      </c>
+      <c r="AJ43">
+        <v>7.269582668500047e-12</v>
+      </c>
+      <c r="AK43">
+        <v>1.180732705302933e-15</v>
+      </c>
+      <c r="AL43">
+        <v>3.531585595546855e-14</v>
+      </c>
+      <c r="AM43">
+        <v>6.835990566683304e-15</v>
+      </c>
+      <c r="AN43">
+        <v>2.383054364266183e-15</v>
+      </c>
+      <c r="AO43">
+        <v>1.533104702899339e-14</v>
+      </c>
+      <c r="AP43">
+        <v>7.883761726194708e-16</v>
+      </c>
+      <c r="AQ43">
+        <v>3.417355828608981e-15</v>
+      </c>
+      <c r="AR43">
+        <v>1.906432496687514e-13</v>
+      </c>
+      <c r="AS43">
+        <v>1.250200508153455e-13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44">
+        <v>0.9848590765104517</v>
+      </c>
+      <c r="I44">
+        <v>0.984934756198288</v>
+      </c>
+      <c r="J44">
+        <v>0.8011379138994387</v>
+      </c>
+      <c r="U44">
+        <v>-0.9589348190531145</v>
+      </c>
+      <c r="AB44">
+        <v>-0.8520348833345768</v>
+      </c>
+      <c r="AC44">
+        <v>0.7001124301867759</v>
+      </c>
+      <c r="AI44">
+        <v>-0.9580028381475393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45">
+        <v>1.683734156003544e-10</v>
+      </c>
+      <c r="I45">
+        <v>1.634132127270333e-10</v>
+      </c>
+      <c r="J45">
+        <v>0.0005730203728979643</v>
+      </c>
+      <c r="U45">
+        <v>6.335877208281751e-08</v>
+      </c>
+      <c r="AB45">
+        <v>0.0001092967110657661</v>
+      </c>
+      <c r="AC45">
+        <v>0.005303234346378257</v>
+      </c>
+      <c r="AI45">
+        <v>7.234395964200808e-08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45">
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46">
+        <v>-0.9027018276728085</v>
+      </c>
+      <c r="E46">
+        <v>-0.9029610409200244</v>
+      </c>
+      <c r="F46">
+        <v>-0.902495400703423</v>
+      </c>
+      <c r="G46">
+        <v>-0.9056190037653469</v>
+      </c>
+      <c r="H46">
+        <v>0.8909906039476752</v>
+      </c>
+      <c r="I46">
+        <v>0.7773687715422856</v>
+      </c>
+      <c r="J46">
+        <v>0.7555939979077146</v>
+      </c>
+      <c r="K46">
+        <v>0.2698236887471919</v>
+      </c>
+      <c r="R46">
+        <v>0.9578516088191424</v>
+      </c>
+      <c r="S46">
+        <v>-0.9573826577733449</v>
+      </c>
+      <c r="T46">
+        <v>0.9122588636481882</v>
+      </c>
+      <c r="U46">
+        <v>-0.9545614034286232</v>
+      </c>
+      <c r="W46">
+        <v>0.8496263430155757</v>
+      </c>
+      <c r="Y46">
+        <v>0.9847421601744268</v>
+      </c>
+      <c r="AB46">
+        <v>-0.9882872612244501</v>
+      </c>
+      <c r="AC46">
+        <v>0.934723441638045</v>
+      </c>
+      <c r="AD46">
+        <v>-0.9798687472487694</v>
+      </c>
+      <c r="AE46">
+        <v>-0.9772761356976662</v>
+      </c>
+      <c r="AF46">
+        <v>0.8973654276501598</v>
+      </c>
+      <c r="AG46">
+        <v>0.9016008086897743</v>
+      </c>
+      <c r="AH46">
+        <v>0.353363935481827</v>
+      </c>
+      <c r="AI46">
+        <v>-0.9554466683787232</v>
+      </c>
+      <c r="AJ46">
+        <v>0.9294642991934423</v>
+      </c>
+      <c r="AK46">
+        <v>-0.8973944959354593</v>
+      </c>
+      <c r="AL46">
+        <v>0.912679357417532</v>
+      </c>
+      <c r="AM46">
+        <v>0.9074498914280605</v>
+      </c>
+      <c r="AN46">
+        <v>0.8963869647906185</v>
+      </c>
+      <c r="AO46">
+        <v>0.9101430909941048</v>
+      </c>
+      <c r="AP46">
+        <v>0.9029688202895755</v>
+      </c>
+      <c r="AR46">
+        <v>0.9176758452375546</v>
+      </c>
+      <c r="AS46">
+        <v>0.9163990489567906</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47">
+        <v>9.903802800578839e-06</v>
+      </c>
+      <c r="E47">
+        <v>9.752173454327984e-06</v>
+      </c>
+      <c r="F47">
+        <v>1.002593289365465e-05</v>
+      </c>
+      <c r="G47">
+        <v>8.304274015771606e-06</v>
+      </c>
+      <c r="H47">
+        <v>1.908099858732175e-05</v>
+      </c>
+      <c r="I47">
+        <v>0.001067296013940069</v>
+      </c>
+      <c r="J47">
+        <v>0.001774844547347422</v>
+      </c>
+      <c r="K47">
+        <v>0.3508573021777392</v>
+      </c>
+      <c r="R47">
+        <v>7.389678391712444e-08</v>
+      </c>
+      <c r="S47">
+        <v>7.888853745814896e-08</v>
+      </c>
+      <c r="T47">
+        <v>5.440278955649845e-06</v>
+      </c>
+      <c r="U47">
+        <v>1.151790627651777e-07</v>
+      </c>
+      <c r="W47">
+        <v>0.0001197572733997588</v>
+      </c>
+      <c r="Y47">
+        <v>1.762820865305483e-10</v>
+      </c>
+      <c r="AB47">
+        <v>3.635108340011369e-11</v>
+      </c>
+      <c r="AC47">
+        <v>9.693854874713757e-07</v>
+      </c>
+      <c r="AD47">
+        <v>9.202537900865997e-10</v>
+      </c>
+      <c r="AE47">
+        <v>1.89296552491085e-09</v>
+      </c>
+      <c r="AF47">
+        <v>1.348242171421243e-05</v>
+      </c>
+      <c r="AG47">
+        <v>1.056957910704369e-05</v>
+      </c>
+      <c r="AH47">
+        <v>0.2152092723101403</v>
+      </c>
+      <c r="AI47">
+        <v>1.025519306771686e-07</v>
+      </c>
+      <c r="AJ47">
+        <v>1.525383280774424e-06</v>
+      </c>
+      <c r="AK47">
+        <v>1.346040030450222e-05</v>
+      </c>
+      <c r="AL47">
+        <v>5.290641917520534e-06</v>
+      </c>
+      <c r="AM47">
+        <v>7.41351893312913e-06</v>
+      </c>
+      <c r="AN47">
+        <v>1.424109608989053e-05</v>
+      </c>
+      <c r="AO47">
+        <v>6.246988131560296e-06</v>
+      </c>
+      <c r="AP47">
+        <v>9.74765244709243e-06</v>
+      </c>
+      <c r="AR47">
+        <v>3.756469863126638e-06</v>
+      </c>
+      <c r="AS47">
+        <v>4.108236785169145e-06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45">
+      <c r="A48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48">
+        <v>-0.9029590569138088</v>
+      </c>
+      <c r="E48">
+        <v>-0.9031793927403764</v>
+      </c>
+      <c r="F48">
+        <v>-0.9064825574928411</v>
+      </c>
+      <c r="G48">
+        <v>-0.9091446960862694</v>
+      </c>
+      <c r="H48">
+        <v>0.8874879402900568</v>
+      </c>
+      <c r="I48">
+        <v>0.7531803816763734</v>
+      </c>
+      <c r="J48">
+        <v>0.7407742503660376</v>
+      </c>
+      <c r="K48">
+        <v>0.2368013483308261</v>
+      </c>
+      <c r="R48">
+        <v>0.9574189248595727</v>
+      </c>
+      <c r="S48">
+        <v>-0.9744896718717693</v>
+      </c>
+      <c r="T48">
+        <v>0.901412323366406</v>
+      </c>
+      <c r="U48">
+        <v>-0.9494130366076654</v>
+      </c>
+      <c r="W48">
+        <v>0.8350396201569456</v>
+      </c>
+      <c r="AB48">
+        <v>-0.9935964846729912</v>
+      </c>
+      <c r="AC48">
+        <v>0.9631980671495808</v>
+      </c>
+      <c r="AD48">
+        <v>-0.9872887550585698</v>
+      </c>
+      <c r="AE48">
+        <v>-0.9875681973419991</v>
+      </c>
+      <c r="AF48">
+        <v>0.886188679270996</v>
+      </c>
+      <c r="AG48">
+        <v>0.890666153532877</v>
+      </c>
+      <c r="AH48">
+        <v>0.3723184492766693</v>
+      </c>
+      <c r="AI48">
+        <v>-0.9508157425313898</v>
+      </c>
+      <c r="AJ48">
+        <v>0.9227855336615717</v>
+      </c>
+      <c r="AK48">
+        <v>-0.8851609878255585</v>
+      </c>
+      <c r="AL48">
+        <v>0.9037390138851318</v>
+      </c>
+      <c r="AM48">
+        <v>0.8968931109318915</v>
+      </c>
+      <c r="AN48">
+        <v>0.8839724307699537</v>
+      </c>
+      <c r="AO48">
+        <v>0.9004058163157438</v>
+      </c>
+      <c r="AP48">
+        <v>0.8927821845689341</v>
+      </c>
+      <c r="AR48">
+        <v>0.9093666017243949</v>
+      </c>
+      <c r="AS48">
+        <v>0.9076269964059748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45">
+      <c r="A49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49">
+        <v>9.753326741592199e-06</v>
+      </c>
+      <c r="E49">
+        <v>9.625929100820946e-06</v>
+      </c>
+      <c r="F49">
+        <v>7.87379921988885e-06</v>
+      </c>
+      <c r="G49">
+        <v>6.660401169020453e-06</v>
+      </c>
+      <c r="H49">
+        <v>2.288784685239785e-05</v>
+      </c>
+      <c r="I49">
+        <v>0.001871910561636167</v>
+      </c>
+      <c r="J49">
+        <v>0.002439371746727001</v>
+      </c>
+      <c r="K49">
+        <v>0.4150073772645296</v>
+      </c>
+      <c r="R49">
+        <v>7.849279500728931e-08</v>
+      </c>
+      <c r="S49">
+        <v>3.766412725663094e-09</v>
+      </c>
+      <c r="T49">
+        <v>1.068714937541083e-05</v>
+      </c>
+      <c r="U49">
+        <v>2.168566040547024e-07</v>
+      </c>
+      <c r="W49">
+        <v>0.0002018769375399446</v>
+      </c>
+      <c r="AB49">
+        <v>9.818291017606735e-13</v>
+      </c>
+      <c r="AC49">
+        <v>3.312966810837121e-08</v>
+      </c>
+      <c r="AD49">
+        <v>5.925996922168943e-11</v>
+      </c>
+      <c r="AE49">
+        <v>5.18918183654069e-11</v>
+      </c>
+      <c r="AF49">
+        <v>2.444883986336755e-05</v>
+      </c>
+      <c r="AG49">
+        <v>1.941019394896747e-05</v>
+      </c>
+      <c r="AH49">
+        <v>0.1898762756429519</v>
+      </c>
+      <c r="AI49">
+        <v>1.837507533810611e-07</v>
+      </c>
+      <c r="AJ49">
+        <v>2.586524792364174e-06</v>
+      </c>
+      <c r="AK49">
+        <v>2.57443003357835e-05</v>
+      </c>
+      <c r="AL49">
+        <v>9.308482784014389e-06</v>
+      </c>
+      <c r="AM49">
+        <v>1.384439535914357e-05</v>
+      </c>
+      <c r="AN49">
+        <v>2.73119856783504e-05</v>
+      </c>
+      <c r="AO49">
+        <v>1.133327788545565e-05</v>
+      </c>
+      <c r="AP49">
+        <v>1.734442913482176e-05</v>
+      </c>
+      <c r="AR49">
+        <v>6.56662727815959e-06</v>
+      </c>
+      <c r="AS49">
+        <v>7.331691732317501e-06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45">
+      <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50">
+        <v>0.9087842422277442</v>
+      </c>
+      <c r="E50">
+        <v>0.9090162761837828</v>
+      </c>
+      <c r="F50">
+        <v>0.9069267847628066</v>
+      </c>
+      <c r="G50">
+        <v>0.9097306117317056</v>
+      </c>
+      <c r="H50">
+        <v>-0.8942984130339416</v>
+      </c>
+      <c r="I50">
+        <v>-0.7581174457602177</v>
+      </c>
+      <c r="J50">
+        <v>-0.7806146150304978</v>
+      </c>
+      <c r="K50">
+        <v>-0.3026088018084385</v>
+      </c>
+      <c r="L50">
+        <v>-0.9253228434765721</v>
+      </c>
+      <c r="M50">
+        <v>0.4432117507677347</v>
+      </c>
+      <c r="N50">
+        <v>-0.9475298291504302</v>
+      </c>
+      <c r="O50">
+        <v>-0.9189388939860045</v>
+      </c>
+      <c r="P50">
+        <v>-0.9429592751723945</v>
+      </c>
+      <c r="Q50">
+        <v>-0.9342786770912648</v>
+      </c>
+      <c r="R50">
+        <v>-0.9759394045059</v>
+      </c>
+      <c r="S50">
+        <v>0.9768710474690016</v>
+      </c>
+      <c r="T50">
+        <v>-0.9066931380789087</v>
+      </c>
+      <c r="U50">
+        <v>0.956557390046427</v>
+      </c>
+      <c r="W50">
+        <v>-0.8413773420064057</v>
+      </c>
+      <c r="X50">
+        <v>-0.9845226927579133</v>
+      </c>
+      <c r="Y50">
+        <v>-0.9925458336484256</v>
+      </c>
+      <c r="AA50">
+        <v>0.9795694831250975</v>
+      </c>
+      <c r="AB50">
+        <v>0.9951194307232287</v>
+      </c>
+      <c r="AC50">
+        <v>-0.9580997073041188</v>
+      </c>
+      <c r="AD50">
+        <v>0.9911720085583391</v>
+      </c>
+      <c r="AE50">
+        <v>0.9880679111462677</v>
+      </c>
+      <c r="AF50">
+        <v>-0.8934492655517686</v>
+      </c>
+      <c r="AG50">
+        <v>-0.8980497644326731</v>
+      </c>
+      <c r="AH50">
+        <v>-0.4286342081219967</v>
+      </c>
+      <c r="AI50">
+        <v>0.9577074244510622</v>
+      </c>
+      <c r="AJ50">
+        <v>-0.9296256090848573</v>
+      </c>
+      <c r="AK50">
+        <v>0.8932715329155849</v>
+      </c>
+      <c r="AL50">
+        <v>-0.9108561535645617</v>
+      </c>
+      <c r="AM50">
+        <v>-0.904480334184478</v>
+      </c>
+      <c r="AN50">
+        <v>-0.8922036780656293</v>
+      </c>
+      <c r="AO50">
+        <v>-0.9077544206185241</v>
+      </c>
+      <c r="AP50">
+        <v>-0.9000256128455948</v>
+      </c>
+      <c r="AR50">
+        <v>-0.916407209244214</v>
+      </c>
+      <c r="AS50">
+        <v>-0.9148072501979059</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45">
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51">
+        <v>6.815066091764034e-06</v>
+      </c>
+      <c r="E51">
+        <v>6.715169935523003e-06</v>
+      </c>
+      <c r="F51">
+        <v>7.659597793707358e-06</v>
+      </c>
+      <c r="G51">
+        <v>6.415152032392571e-06</v>
+      </c>
+      <c r="H51">
+        <v>1.597789585811458e-05</v>
+      </c>
+      <c r="I51">
+        <v>0.001677678485592623</v>
+      </c>
+      <c r="J51">
+        <v>0.0009847324464826502</v>
+      </c>
+      <c r="K51">
+        <v>0.2929794276734841</v>
+      </c>
+      <c r="L51">
+        <v>2.128554827362962e-06</v>
+      </c>
+      <c r="M51">
+        <v>0.1124539212839719</v>
+      </c>
+      <c r="N51">
+        <v>2.689225250751802e-07</v>
+      </c>
+      <c r="O51">
+        <v>3.433251362849914e-06</v>
+      </c>
+      <c r="P51">
+        <v>4.394564070909401e-07</v>
+      </c>
+      <c r="Q51">
+        <v>1.008709240819765e-06</v>
+      </c>
+      <c r="R51">
+        <v>2.659697746441878e-09</v>
+      </c>
+      <c r="S51">
+        <v>2.102833855420154e-09</v>
+      </c>
+      <c r="T51">
+        <v>7.771654902072494e-06</v>
+      </c>
+      <c r="U51">
+        <v>8.83506993709308e-08</v>
+      </c>
+      <c r="W51">
+        <v>0.0001619177845355999</v>
+      </c>
+      <c r="X51">
+        <v>1.919626844276915e-10</v>
+      </c>
+      <c r="Y51">
+        <v>2.437469708117743e-12</v>
+      </c>
+      <c r="AA51">
+        <v>1.004796679451895e-09</v>
+      </c>
+      <c r="AB51">
+        <v>1.930938843497114e-13</v>
+      </c>
+      <c r="AC51">
+        <v>7.136357870326564e-08</v>
+      </c>
+      <c r="AD51">
+        <v>6.705536645286659e-12</v>
+      </c>
+      <c r="AE51">
+        <v>4.061256322535332e-11</v>
+      </c>
+      <c r="AF51">
+        <v>1.67318829014518e-05</v>
+      </c>
+      <c r="AG51">
+        <v>1.297175139166082e-05</v>
+      </c>
+      <c r="AH51">
+        <v>0.1262122911743571</v>
+      </c>
+      <c r="AI51">
+        <v>7.54028719232353e-08</v>
+      </c>
+      <c r="AJ51">
+        <v>1.505106873312615e-06</v>
+      </c>
+      <c r="AK51">
+        <v>1.689332630993708e-05</v>
+      </c>
+      <c r="AL51">
+        <v>5.96482493710223e-06</v>
+      </c>
+      <c r="AM51">
+        <v>8.90124140840654e-06</v>
+      </c>
+      <c r="AN51">
+        <v>1.789039686243468e-05</v>
+      </c>
+      <c r="AO51">
+        <v>7.273278297299866e-06</v>
+      </c>
+      <c r="AP51">
+        <v>1.158553255204104e-05</v>
+      </c>
+      <c r="AR51">
+        <v>4.105905565528333e-06</v>
+      </c>
+      <c r="AS51">
+        <v>4.584289604752521e-06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45">
+      <c r="A52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52">
+        <v>0.9199747596476553</v>
+      </c>
+      <c r="E52">
+        <v>0.9201507590011815</v>
+      </c>
+      <c r="F52">
+        <v>0.9242068944611449</v>
+      </c>
+      <c r="G52">
+        <v>0.9263459263514641</v>
+      </c>
+      <c r="H52">
+        <v>-0.9084849465048329</v>
+      </c>
+      <c r="I52">
+        <v>-0.7901643109826213</v>
+      </c>
+      <c r="J52">
+        <v>-0.7445784197065003</v>
+      </c>
+      <c r="K52">
+        <v>-0.2032207998448078</v>
+      </c>
+      <c r="L52">
+        <v>-0.9368438679750382</v>
+      </c>
+      <c r="M52">
+        <v>0.5164079713641573</v>
+      </c>
+      <c r="N52">
+        <v>-0.9560129333823655</v>
+      </c>
+      <c r="O52">
+        <v>-0.9282388638567949</v>
+      </c>
+      <c r="P52">
+        <v>-0.9482706932910163</v>
+      </c>
+      <c r="Q52">
+        <v>-0.9475086756594455</v>
+      </c>
+      <c r="R52">
+        <v>-0.9621709980892262</v>
+      </c>
+      <c r="S52">
+        <v>0.9704520519262029</v>
+      </c>
+      <c r="T52">
+        <v>-0.9210414337317411</v>
+      </c>
+      <c r="U52">
+        <v>0.9607880915626056</v>
+      </c>
+      <c r="W52">
+        <v>-0.8636126258903926</v>
+      </c>
+      <c r="X52">
+        <v>-0.9822051744669349</v>
+      </c>
+      <c r="Y52">
+        <v>-0.9838009816711956</v>
+      </c>
+      <c r="AB52">
+        <v>0.9945483875848744</v>
+      </c>
+      <c r="AC52">
+        <v>-0.9468465857653861</v>
+      </c>
+      <c r="AD52">
+        <v>0.9823644043951805</v>
+      </c>
+      <c r="AE52">
+        <v>0.9911684451720291</v>
+      </c>
+      <c r="AF52">
+        <v>-0.908173775006524</v>
+      </c>
+      <c r="AG52">
+        <v>-0.9117331199875333</v>
+      </c>
+      <c r="AH52">
+        <v>-0.2583697788132304</v>
+      </c>
+      <c r="AI52">
+        <v>0.962062465154132</v>
+      </c>
+      <c r="AJ52">
+        <v>-0.9392930944029517</v>
+      </c>
+      <c r="AK52">
+        <v>0.9056942598546903</v>
+      </c>
+      <c r="AL52">
+        <v>-0.922795120655447</v>
+      </c>
+      <c r="AM52">
+        <v>-0.9168162325364886</v>
+      </c>
+      <c r="AN52">
+        <v>-0.9040887402555122</v>
+      </c>
+      <c r="AO52">
+        <v>-0.9198901308833558</v>
+      </c>
+      <c r="AP52">
+        <v>-0.9141644733066191</v>
+      </c>
+      <c r="AR52">
+        <v>-0.9277591756169788</v>
+      </c>
+      <c r="AS52">
+        <v>-0.9262418808276499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45">
+      <c r="A53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53">
+        <v>3.185574287735214e-06</v>
+      </c>
+      <c r="E53">
+        <v>3.144992721644025e-06</v>
+      </c>
+      <c r="F53">
+        <v>2.320953206150794e-06</v>
+      </c>
+      <c r="G53">
+        <v>1.963900132733735e-06</v>
+      </c>
+      <c r="H53">
+        <v>6.94571930566813e-06</v>
+      </c>
+      <c r="I53">
+        <v>0.0007709784831970445</v>
+      </c>
+      <c r="J53">
+        <v>0.0022526103814192</v>
+      </c>
+      <c r="K53">
+        <v>0.485918594641477</v>
+      </c>
+      <c r="L53">
+        <v>7.988594678217963e-07</v>
+      </c>
+      <c r="M53">
+        <v>0.05868052053040186</v>
+      </c>
+      <c r="N53">
+        <v>9.5093103829574e-08</v>
+      </c>
+      <c r="O53">
+        <v>1.68689408472425e-06</v>
+      </c>
+      <c r="P53">
+        <v>2.473295994347157e-07</v>
+      </c>
+      <c r="Q53">
+        <v>2.695612064287501e-07</v>
+      </c>
+      <c r="R53">
+        <v>3.89917383490835e-08</v>
+      </c>
+      <c r="S53">
+        <v>9.015650073415398e-09</v>
+      </c>
+      <c r="T53">
+        <v>2.946089057573828e-06</v>
+      </c>
+      <c r="U53">
+        <v>4.821969624309304e-08</v>
+      </c>
+      <c r="W53">
+        <v>6.881808455498703e-05</v>
+      </c>
+      <c r="X53">
+        <v>4.412003690525163e-10</v>
+      </c>
+      <c r="Y53">
+        <v>2.519420875232047e-10</v>
+      </c>
+      <c r="AB53">
+        <v>3.74595839311671e-13</v>
+      </c>
+      <c r="AC53">
+        <v>2.901950680924875e-07</v>
+      </c>
+      <c r="AD53">
+        <v>4.181802061377602e-10</v>
+      </c>
+      <c r="AE53">
+        <v>6.721741528684127e-12</v>
+      </c>
+      <c r="AF53">
+        <v>7.083730628748986e-06</v>
+      </c>
+      <c r="AG53">
+        <v>5.632245666063903e-06</v>
+      </c>
+      <c r="AH53">
+        <v>0.3724567186641279</v>
+      </c>
+      <c r="AI53">
+        <v>3.965842084825799e-08</v>
+      </c>
+      <c r="AJ53">
+        <v>6.334929528702903e-07</v>
+      </c>
+      <c r="AK53">
+        <v>8.266007822850866e-06</v>
+      </c>
+      <c r="AL53">
+        <v>2.584653274707169e-06</v>
+      </c>
+      <c r="AM53">
+        <v>3.990442032688429e-06</v>
+      </c>
+      <c r="AN53">
+        <v>9.114498878808828e-06</v>
+      </c>
+      <c r="AO53">
+        <v>3.205240657385706e-06</v>
+      </c>
+      <c r="AP53">
+        <v>4.788944512798465e-06</v>
+      </c>
+      <c r="AR53">
+        <v>1.753835211231271e-06</v>
+      </c>
+      <c r="AS53">
+        <v>1.980149899385575e-06</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45">
+      <c r="A54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54">
+        <v>-0.9021589963915512</v>
+      </c>
+      <c r="I54">
+        <v>-0.7723024823188082</v>
+      </c>
+      <c r="J54">
+        <v>-0.7635950760268008</v>
+      </c>
+      <c r="K54">
+        <v>-0.2572573013751008</v>
+      </c>
+      <c r="U54">
+        <v>0.9611585669228846</v>
+      </c>
+      <c r="AC54">
+        <v>-0.9597060460266794</v>
+      </c>
+      <c r="AI54">
+        <v>0.9624220119897137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45">
+      <c r="A55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55">
+        <v>1.022760827394685e-05</v>
+      </c>
+      <c r="I55">
+        <v>0.001207126013001579</v>
+      </c>
+      <c r="J55">
+        <v>0.001481283913497942</v>
+      </c>
+      <c r="K55">
+        <v>0.3745918807084765</v>
+      </c>
+      <c r="U55">
+        <v>4.558670412574843e-08</v>
+      </c>
+      <c r="AC55">
+        <v>5.664126983398665e-08</v>
+      </c>
+      <c r="AI55">
+        <v>3.748534802791249e-08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45">
+      <c r="A56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56">
+        <v>0.7837808699741927</v>
+      </c>
+      <c r="I56">
+        <v>0.5880254425293281</v>
+      </c>
+      <c r="J56">
+        <v>0.6857982158692457</v>
+      </c>
+      <c r="K56">
+        <v>0.3254731539973325</v>
+      </c>
+      <c r="U56">
+        <v>-0.8667324351514896</v>
+      </c>
+      <c r="AI56">
+        <v>-0.8694610800929163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45">
+      <c r="A57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H57">
+        <v>0.0009091910975453257</v>
+      </c>
+      <c r="I57">
+        <v>0.02698892553011414</v>
+      </c>
+      <c r="J57">
+        <v>0.006775382999073253</v>
+      </c>
+      <c r="K57">
+        <v>0.2561517371336464</v>
+      </c>
+      <c r="U57">
+        <v>6.032103741364801e-05</v>
+      </c>
+      <c r="AI57">
+        <v>5.360917910569124e-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45">
+      <c r="A58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <v>0.9089456761008732</v>
+      </c>
+      <c r="E58">
+        <v>0.9091571697730649</v>
+      </c>
+      <c r="F58">
+        <v>0.90623931628599</v>
+      </c>
+      <c r="G58">
+        <v>0.9088009509252439</v>
+      </c>
+      <c r="H58">
+        <v>-0.8910518162228935</v>
+      </c>
+      <c r="I58">
+        <v>-0.7381895438192025</v>
+      </c>
+      <c r="J58">
+        <v>-0.7855904730183704</v>
+      </c>
+      <c r="K58">
+        <v>-0.3134779194774751</v>
+      </c>
+      <c r="R58">
+        <v>-0.9675133147275095</v>
+      </c>
+      <c r="S58">
+        <v>0.9870819834053752</v>
+      </c>
+      <c r="T58">
+        <v>-0.8944631704443087</v>
+      </c>
+      <c r="U58">
+        <v>0.952571130927381</v>
+      </c>
+      <c r="W58">
+        <v>-0.8307910765397004</v>
+      </c>
+      <c r="AB58">
+        <v>0.9922441269708276</v>
+      </c>
+      <c r="AC58">
+        <v>-0.9724059955531349</v>
+      </c>
+      <c r="AE58">
+        <v>0.9959541943894347</v>
+      </c>
+      <c r="AF58">
+        <v>-0.8831216197369119</v>
+      </c>
+      <c r="AG58">
+        <v>-0.8880151127440353</v>
+      </c>
+      <c r="AH58">
+        <v>-0.3355695215705459</v>
+      </c>
+      <c r="AI58">
+        <v>0.9542172162065704</v>
+      </c>
+      <c r="AJ58">
+        <v>-0.9237288522315052</v>
+      </c>
+      <c r="AK58">
+        <v>0.8815580295354086</v>
+      </c>
+      <c r="AL58">
+        <v>-0.9023740916229838</v>
+      </c>
+      <c r="AM58">
+        <v>-0.8950878104395619</v>
+      </c>
+      <c r="AN58">
+        <v>-0.8797021108523667</v>
+      </c>
+      <c r="AO58">
+        <v>-0.8988234120987474</v>
+      </c>
+      <c r="AP58">
+        <v>-0.8917187859850232</v>
+      </c>
+      <c r="AR58">
+        <v>-0.9087245519597865</v>
+      </c>
+      <c r="AS58">
+        <v>-0.9068740774814057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45">
+      <c r="A59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59">
+        <v>6.745436807713316e-06</v>
+      </c>
+      <c r="E59">
+        <v>6.655100974728453e-06</v>
+      </c>
+      <c r="F59">
+        <v>7.993155016993267e-06</v>
+      </c>
+      <c r="G59">
+        <v>6.807832066087437e-06</v>
+      </c>
+      <c r="H59">
+        <v>1.901940665974812e-05</v>
+      </c>
+      <c r="I59">
+        <v>0.002573098006671109</v>
+      </c>
+      <c r="J59">
+        <v>0.0008681453513219537</v>
+      </c>
+      <c r="K59">
+        <v>0.2751067814987813</v>
+      </c>
+      <c r="R59">
+        <v>1.582329521176781e-08</v>
+      </c>
+      <c r="S59">
+        <v>6.525510969547405e-11</v>
+      </c>
+      <c r="T59">
+        <v>1.583487811095464e-05</v>
+      </c>
+      <c r="U59">
+        <v>1.483181035506088e-07</v>
+      </c>
+      <c r="W59">
+        <v>0.0002328733018737784</v>
+      </c>
+      <c r="AB59">
+        <v>3.090631804952971e-12</v>
+      </c>
+      <c r="AC59">
+        <v>6.005656302197074e-09</v>
+      </c>
+      <c r="AE59">
+        <v>6.277025948351614e-14</v>
+      </c>
+      <c r="AF59">
+        <v>2.848142598871997e-05</v>
+      </c>
+      <c r="AG59">
+        <v>2.227819882749556e-05</v>
+      </c>
+      <c r="AH59">
+        <v>0.240824956240498</v>
+      </c>
+      <c r="AI59">
+        <v>1.204234655879881e-07</v>
+      </c>
+      <c r="AJ59">
+        <v>2.407638857697707e-06</v>
+      </c>
+      <c r="AK59">
+        <v>3.073726442363398e-05</v>
+      </c>
+      <c r="AL59">
+        <v>1.009827844150898e-05</v>
+      </c>
+      <c r="AM59">
+        <v>1.530214778180582e-05</v>
+      </c>
+      <c r="AN59">
+        <v>3.360221895743271e-05</v>
+      </c>
+      <c r="AO59">
+        <v>1.241363905357301e-05</v>
+      </c>
+      <c r="AP59">
+        <v>1.835878287168279e-05</v>
+      </c>
+      <c r="AR59">
+        <v>6.840960554989632e-06</v>
+      </c>
+      <c r="AS59">
+        <v>7.684759635171057e-06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45">
+      <c r="A60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60">
+        <v>0.9206340937895834</v>
+      </c>
+      <c r="E60">
+        <v>0.9208145296941488</v>
+      </c>
+      <c r="F60">
+        <v>0.9202468086065347</v>
+      </c>
+      <c r="G60">
+        <v>0.9224409475513141</v>
+      </c>
+      <c r="H60">
+        <v>-0.9017571291095224</v>
+      </c>
+      <c r="I60">
+        <v>-0.7526124988644024</v>
+      </c>
+      <c r="J60">
+        <v>-0.7813605900530938</v>
+      </c>
+      <c r="K60">
+        <v>-0.2793821016241309</v>
+      </c>
+      <c r="R60">
+        <v>-0.9645491732897209</v>
+      </c>
+      <c r="S60">
+        <v>0.989485894955165</v>
+      </c>
+      <c r="T60">
+        <v>-0.9017899747027811</v>
+      </c>
+      <c r="U60">
+        <v>0.9560614261396323</v>
+      </c>
+      <c r="W60">
+        <v>-0.8416414254389923</v>
+      </c>
+      <c r="AB60">
+        <v>0.9948886072572084</v>
+      </c>
+      <c r="AC60">
+        <v>-0.9715176282681538</v>
+      </c>
+      <c r="AF60">
+        <v>-0.89160731234645</v>
+      </c>
+      <c r="AG60">
+        <v>-0.8958652513703956</v>
+      </c>
+      <c r="AH60">
+        <v>-0.3037373101518412</v>
+      </c>
+      <c r="AI60">
+        <v>0.9576700051468268</v>
+      </c>
+      <c r="AJ60">
+        <v>-0.9298813697406424</v>
+      </c>
+      <c r="AK60">
+        <v>0.8889706502444511</v>
+      </c>
+      <c r="AL60">
+        <v>-0.9096252380377231</v>
+      </c>
+      <c r="AM60">
+        <v>-0.9022994293576356</v>
+      </c>
+      <c r="AN60">
+        <v>-0.8870383902151268</v>
+      </c>
+      <c r="AO60">
+        <v>-0.9060554591199751</v>
+      </c>
+      <c r="AP60">
+        <v>-0.8996339139208656</v>
+      </c>
+      <c r="AR60">
+        <v>-0.9156729479523259</v>
+      </c>
+      <c r="AS60">
+        <v>-0.913794761500043</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45">
+      <c r="A61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61">
+        <v>3.035729207681006e-06</v>
+      </c>
+      <c r="E61">
+        <v>2.99574917096159e-06</v>
+      </c>
+      <c r="F61">
+        <v>3.123025869483554e-06</v>
+      </c>
+      <c r="G61">
+        <v>2.65453756039239e-06</v>
+      </c>
+      <c r="H61">
+        <v>1.047287878497051e-05</v>
+      </c>
+      <c r="I61">
+        <v>0.001895349048637386</v>
+      </c>
+      <c r="J61">
+        <v>0.0009664990109794888</v>
+      </c>
+      <c r="K61">
+        <v>0.3333738804567766</v>
+      </c>
+      <c r="R61">
+        <v>2.654770392913815e-08</v>
+      </c>
+      <c r="S61">
+        <v>1.906868999936085e-11</v>
+      </c>
+      <c r="T61">
+        <v>1.045265294194808e-05</v>
+      </c>
+      <c r="U61">
+        <v>9.447582154208862e-08</v>
+      </c>
+      <c r="W61">
+        <v>0.0001604037956971523</v>
+      </c>
+      <c r="AB61">
+        <v>2.546630329720017e-13</v>
+      </c>
+      <c r="AC61">
+        <v>7.249249712654713e-09</v>
+      </c>
+      <c r="AF61">
+        <v>1.846786854575421e-05</v>
+      </c>
+      <c r="AG61">
+        <v>1.465969808585545e-05</v>
+      </c>
+      <c r="AH61">
+        <v>0.2910930305264997</v>
+      </c>
+      <c r="AI61">
+        <v>7.579786412158607e-08</v>
+      </c>
+      <c r="AJ61">
+        <v>1.473413801976997e-06</v>
+      </c>
+      <c r="AK61">
+        <v>2.12070409720231e-05</v>
+      </c>
+      <c r="AL61">
+        <v>6.458702826952871e-06</v>
+      </c>
+      <c r="AM61">
+        <v>1.014301754192581e-05</v>
+      </c>
+      <c r="AN61">
+        <v>2.341844748529059e-05</v>
+      </c>
+      <c r="AO61">
+        <v>8.084353847657237e-06</v>
+      </c>
+      <c r="AP61">
+        <v>1.185021028287753e-05</v>
+      </c>
+      <c r="AR61">
+        <v>4.320072127902612e-06</v>
+      </c>
+      <c r="AS61">
+        <v>4.91001991730173e-06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45">
+      <c r="A62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62">
+        <v>-0.9780923740249042</v>
+      </c>
+      <c r="E62">
+        <v>-0.978099871850728</v>
+      </c>
+      <c r="F62">
+        <v>-0.9794378411287172</v>
+      </c>
+      <c r="G62">
+        <v>-0.9795915489239529</v>
+      </c>
+      <c r="H62">
+        <v>0.9929383319732781</v>
+      </c>
+      <c r="I62">
+        <v>0.9649486732755971</v>
+      </c>
+      <c r="J62">
+        <v>0.8215860698093727</v>
+      </c>
+      <c r="R62">
+        <v>0.9413060184412236</v>
+      </c>
+      <c r="S62">
+        <v>-0.9030241236162083</v>
+      </c>
+      <c r="T62">
+        <v>0.9980781491705407</v>
+      </c>
+      <c r="U62">
+        <v>-0.9832633344773464</v>
+      </c>
+      <c r="W62">
+        <v>0.9942081254157958</v>
+      </c>
+      <c r="AB62">
+        <v>-0.9014521517244554</v>
+      </c>
+      <c r="AC62">
+        <v>0.7681224614748398</v>
+      </c>
+      <c r="AG62">
+        <v>0.9999319320815001</v>
+      </c>
+      <c r="AH62">
+        <v>0.2454877858310675</v>
+      </c>
+      <c r="AI62">
+        <v>-0.9826494397209203</v>
+      </c>
+      <c r="AJ62">
+        <v>0.9952979306582926</v>
+      </c>
+      <c r="AK62">
+        <v>-0.9998218103866811</v>
+      </c>
+      <c r="AL62">
+        <v>0.9990473438307315</v>
+      </c>
+      <c r="AM62">
+        <v>0.999625205215991</v>
+      </c>
+      <c r="AN62">
+        <v>0.999660591379628</v>
+      </c>
+      <c r="AO62">
+        <v>0.9993759028956183</v>
+      </c>
+      <c r="AP62">
+        <v>0.9997127123205252</v>
+      </c>
+      <c r="AR62">
+        <v>0.9982699705622057</v>
+      </c>
+      <c r="AS62">
+        <v>0.9985298014134504</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45">
+      <c r="A63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63">
+        <v>1.522606973772321e-09</v>
+      </c>
+      <c r="E63">
+        <v>1.519507624054393e-09</v>
+      </c>
+      <c r="F63">
+        <v>1.043976746888866e-09</v>
+      </c>
+      <c r="G63">
+        <v>9.983504909235536e-10</v>
+      </c>
+      <c r="H63">
+        <v>1.763416267957716e-12</v>
+      </c>
+      <c r="I63">
+        <v>2.482404362757996e-08</v>
+      </c>
+      <c r="J63">
+        <v>0.0003133035085853031</v>
+      </c>
+      <c r="R63">
+        <v>5.197479296968344e-07</v>
+      </c>
+      <c r="S63">
+        <v>9.715562264092047e-06</v>
+      </c>
+      <c r="T63">
+        <v>7.244707248166478e-16</v>
+      </c>
+      <c r="U63">
+        <v>3.061107335388607e-10</v>
+      </c>
+      <c r="W63">
+        <v>5.382829871519916e-13</v>
+      </c>
+      <c r="AB63">
+        <v>1.066221695293564e-05</v>
+      </c>
+      <c r="AC63">
+        <v>0.001333167601839248</v>
+      </c>
+      <c r="AG63">
+        <v>1.435765360976815e-24</v>
+      </c>
+      <c r="AH63">
+        <v>0.3975798920233625</v>
+      </c>
+      <c r="AI63">
+        <v>3.794641918329303e-10</v>
+      </c>
+      <c r="AJ63">
+        <v>1.544707431926433e-13</v>
+      </c>
+      <c r="AK63">
+        <v>4.619771284004204e-22</v>
+      </c>
+      <c r="AL63">
+        <v>1.077016521142225e-17</v>
+      </c>
+      <c r="AM63">
+        <v>3.998567255300272e-20</v>
+      </c>
+      <c r="AN63">
+        <v>2.205531792822137e-20</v>
+      </c>
+      <c r="AO63">
+        <v>8.519696567200603e-19</v>
+      </c>
+      <c r="AP63">
+        <v>8.11197552387335e-21</v>
+      </c>
+      <c r="AR63">
+        <v>3.856580394387516e-16</v>
+      </c>
+      <c r="AS63">
+        <v>1.453380720462145e-16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45">
+      <c r="A64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64">
+        <v>-0.9785797468918034</v>
+      </c>
+      <c r="E64">
+        <v>-0.9785931693525758</v>
+      </c>
+      <c r="F64">
+        <v>-0.9798218014087007</v>
+      </c>
+      <c r="G64">
+        <v>-0.9800456023814362</v>
+      </c>
+      <c r="H64">
+        <v>0.9928561619274781</v>
+      </c>
+      <c r="I64">
+        <v>0.9623772963502651</v>
+      </c>
+      <c r="J64">
+        <v>0.8224336054007845</v>
+      </c>
+      <c r="R64">
+        <v>0.9446068074270813</v>
+      </c>
+      <c r="S64">
+        <v>-0.9068320992181266</v>
+      </c>
+      <c r="T64">
+        <v>0.9983787655796956</v>
+      </c>
+      <c r="U64">
+        <v>-0.9850852634845514</v>
+      </c>
+      <c r="W64">
+        <v>0.9930530730523455</v>
+      </c>
+      <c r="AB64">
+        <v>-0.9056450119785278</v>
+      </c>
+      <c r="AC64">
+        <v>0.7744098303191603</v>
+      </c>
+      <c r="AH64">
+        <v>0.2497049516909391</v>
+      </c>
+      <c r="AI64">
+        <v>-0.9845219436558262</v>
+      </c>
+      <c r="AJ64">
+        <v>0.996218214562736</v>
+      </c>
+      <c r="AK64">
+        <v>-0.9997843740508203</v>
+      </c>
+      <c r="AL64">
+        <v>0.9994365544274191</v>
+      </c>
+      <c r="AM64">
+        <v>0.9998621022996432</v>
+      </c>
+      <c r="AN64">
+        <v>0.9995932448321089</v>
+      </c>
+      <c r="AO64">
+        <v>0.9996900797156067</v>
+      </c>
+      <c r="AP64">
+        <v>0.9998444384603518</v>
+      </c>
+      <c r="AR64">
+        <v>0.9988099312464425</v>
+      </c>
+      <c r="AS64">
+        <v>0.9990299249135663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45">
+      <c r="A65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65">
+        <v>1.331744620771336e-09</v>
+      </c>
+      <c r="E65">
+        <v>1.326783917519507e-09</v>
+      </c>
+      <c r="F65">
+        <v>9.331105937244664e-10</v>
+      </c>
+      <c r="G65">
+        <v>8.731330522320143e-10</v>
+      </c>
+      <c r="H65">
+        <v>1.889835432105904e-12</v>
+      </c>
+      <c r="I65">
+        <v>3.775010639428517e-08</v>
+      </c>
+      <c r="J65">
+        <v>0.000305073674523583</v>
+      </c>
+      <c r="R65">
+        <v>3.699233351649945e-07</v>
+      </c>
+      <c r="S65">
+        <v>7.704848078047588e-06</v>
+      </c>
+      <c r="T65">
+        <v>2.612508062248515e-16</v>
+      </c>
+      <c r="U65">
+        <v>1.539092037923083e-10</v>
+      </c>
+      <c r="W65">
+        <v>1.598727801280697e-12</v>
+      </c>
+      <c r="AB65">
+        <v>8.291032961153305e-06</v>
+      </c>
+      <c r="AC65">
+        <v>0.001147291632377669</v>
+      </c>
+      <c r="AH65">
+        <v>0.3892596254928907</v>
+      </c>
+      <c r="AI65">
+        <v>1.920181270524993e-10</v>
+      </c>
+      <c r="AJ65">
+        <v>4.189394368523456e-14</v>
+      </c>
+      <c r="AK65">
+        <v>1.450432309974861e-21</v>
+      </c>
+      <c r="AL65">
+        <v>4.614019261836303e-19</v>
+      </c>
+      <c r="AM65">
+        <v>9.924435290290828e-23</v>
+      </c>
+      <c r="AN65">
+        <v>6.532988663411214e-20</v>
+      </c>
+      <c r="AO65">
+        <v>1.278508352540257e-20</v>
+      </c>
+      <c r="AP65">
+        <v>2.045316960081473e-22</v>
+      </c>
+      <c r="AR65">
+        <v>4.090878098357469e-17</v>
+      </c>
+      <c r="AS65">
+        <v>1.200663062231177e-17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45">
+      <c r="A66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66">
+        <v>-0.2503479007972412</v>
+      </c>
+      <c r="E66">
+        <v>-0.2507058455424989</v>
+      </c>
+      <c r="F66">
+        <v>-0.2242057824093902</v>
+      </c>
+      <c r="G66">
+        <v>-0.228466821585724</v>
+      </c>
+      <c r="H66">
+        <v>0.2370689867295839</v>
+      </c>
+      <c r="I66">
+        <v>0.1517409311424063</v>
+      </c>
+      <c r="J66">
+        <v>0.3910998760273007</v>
+      </c>
+      <c r="K66">
+        <v>0.5056651336421625</v>
+      </c>
+      <c r="T66">
+        <v>0.2566347854489839</v>
+      </c>
+      <c r="U66">
+        <v>-0.2979257079171019</v>
+      </c>
+      <c r="W66">
+        <v>0.1950470475895656</v>
+      </c>
+      <c r="AB66">
+        <v>-0.3473146912044649</v>
+      </c>
+      <c r="AC66">
+        <v>0.3277180697936292</v>
+      </c>
+      <c r="AI66">
+        <v>-0.2961368893257083</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45">
+      <c r="A67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67">
+        <v>0.3879992626112055</v>
+      </c>
+      <c r="E67">
+        <v>0.3872985261420786</v>
+      </c>
+      <c r="F67">
+        <v>0.4409576357176812</v>
+      </c>
+      <c r="G67">
+        <v>0.4320898365696484</v>
+      </c>
+      <c r="H67">
+        <v>0.4144646475949105</v>
+      </c>
+      <c r="I67">
+        <v>0.6045675209085004</v>
+      </c>
+      <c r="J67">
+        <v>0.1667398476001035</v>
+      </c>
+      <c r="K67">
+        <v>0.06508406995257303</v>
+      </c>
+      <c r="T67">
+        <v>0.3757895271674102</v>
+      </c>
+      <c r="U67">
+        <v>0.3008834716570881</v>
+      </c>
+      <c r="W67">
+        <v>0.5039921771317202</v>
+      </c>
+      <c r="AB67">
+        <v>0.2237175721170243</v>
+      </c>
+      <c r="AC67">
+        <v>0.25269420860894</v>
+      </c>
+      <c r="AI67">
+        <v>0.303934819034509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45">
+      <c r="A68" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K68">
+        <v>-0.1910513637470063</v>
+      </c>
+      <c r="U68">
+        <v>0.9999261780560434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45">
+      <c r="A69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K69">
+        <v>0.5129377748050685</v>
+      </c>
+      <c r="U69">
+        <v>2.336340616372034e-24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45">
+      <c r="A70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70">
+        <v>-0.985415047830938</v>
+      </c>
+      <c r="E70">
+        <v>-0.9854590004402617</v>
+      </c>
+      <c r="F70">
+        <v>-0.9852440706707978</v>
+      </c>
+      <c r="G70">
+        <v>-0.9858298627137766</v>
+      </c>
+      <c r="H70">
+        <v>0.9927902879455764</v>
+      </c>
+      <c r="I70">
+        <v>0.9357266001141852</v>
+      </c>
+      <c r="J70">
+        <v>0.8358777805453386</v>
+      </c>
+      <c r="K70">
+        <v>0.1399195217497393</v>
+      </c>
+      <c r="R70">
+        <v>0.9642146804524031</v>
+      </c>
+      <c r="S70">
+        <v>-0.9395046971290901</v>
+      </c>
+      <c r="T70">
+        <v>0.9951934825333227</v>
+      </c>
+      <c r="U70">
+        <v>-0.9960846956266437</v>
+      </c>
+      <c r="W70">
+        <v>0.9798998066258275</v>
+      </c>
+      <c r="AB70">
+        <v>-0.9360732004196967</v>
+      </c>
+      <c r="AC70">
+        <v>0.8246778800038755</v>
+      </c>
+      <c r="AH70">
+        <v>0.2682980405261697</v>
+      </c>
+      <c r="AI70">
+        <v>-0.9958448165914928</v>
+      </c>
+      <c r="AL70">
+        <v>0.9985551648307585</v>
+      </c>
+      <c r="AM70">
+        <v>0.9974520984843368</v>
+      </c>
+      <c r="AN70">
+        <v>0.9941256179346563</v>
+      </c>
+      <c r="AO70">
+        <v>0.9980553486689236</v>
+      </c>
+      <c r="AP70">
+        <v>0.9969830967753566</v>
+      </c>
+      <c r="AR70">
+        <v>0.9992643417922941</v>
+      </c>
+      <c r="AS70">
+        <v>0.9990742112776803</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45">
+      <c r="A71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71">
+        <v>1.346820842506125e-10</v>
+      </c>
+      <c r="E71">
+        <v>1.322776528078341e-10</v>
+      </c>
+      <c r="F71">
+        <v>1.443840217205113e-10</v>
+      </c>
+      <c r="G71">
+        <v>1.133737081658856e-10</v>
+      </c>
+      <c r="H71">
+        <v>1.996551042933406e-12</v>
+      </c>
+      <c r="I71">
+        <v>8.853164246101788e-07</v>
+      </c>
+      <c r="J71">
+        <v>0.0001961762732785981</v>
+      </c>
+      <c r="K71">
+        <v>0.633305984692375</v>
+      </c>
+      <c r="R71">
+        <v>2.806612537024841e-08</v>
+      </c>
+      <c r="S71">
+        <v>6.206472755552423e-07</v>
+      </c>
+      <c r="T71">
+        <v>1.761967219218338e-13</v>
+      </c>
+      <c r="U71">
+        <v>5.157493219230362e-14</v>
+      </c>
+      <c r="W71">
+        <v>9.118289023031583e-10</v>
+      </c>
+      <c r="AB71">
+        <v>8.577081070990734e-07</v>
+      </c>
+      <c r="AC71">
+        <v>0.0002841206338654223</v>
+      </c>
+      <c r="AH71">
+        <v>0.3536936914823664</v>
+      </c>
+      <c r="AI71">
+        <v>7.364836068268322e-14</v>
+      </c>
+      <c r="AL71">
+        <v>1.30935325905756e-16</v>
+      </c>
+      <c r="AM71">
+        <v>3.928397957137144e-15</v>
+      </c>
+      <c r="AN71">
+        <v>5.858574191629023e-13</v>
+      </c>
+      <c r="AO71">
+        <v>7.775566214725299e-16</v>
+      </c>
+      <c r="AP71">
+        <v>1.081560913357806e-14</v>
+      </c>
+      <c r="AR71">
+        <v>2.284882021029536e-18</v>
+      </c>
+      <c r="AS71">
+        <v>9.071969658008555e-18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45">
+      <c r="A72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72">
+        <v>0.975613313034052</v>
+      </c>
+      <c r="E72">
+        <v>0.9756273626975775</v>
+      </c>
+      <c r="F72">
+        <v>0.9769875057466774</v>
+      </c>
+      <c r="G72">
+        <v>0.9772184418369881</v>
+      </c>
+      <c r="H72">
+        <v>-0.9915654579405997</v>
+      </c>
+      <c r="I72">
+        <v>-0.96593762003221</v>
+      </c>
+      <c r="J72">
+        <v>-0.8205773259846496</v>
+      </c>
+      <c r="R72">
+        <v>-0.9412408029367736</v>
+      </c>
+      <c r="S72">
+        <v>0.9002130796094612</v>
+      </c>
+      <c r="T72">
+        <v>-0.9983523296312694</v>
+      </c>
+      <c r="U72">
+        <v>0.9825452716745452</v>
+      </c>
+      <c r="W72">
+        <v>-0.994127035621601</v>
+      </c>
+      <c r="AB72">
+        <v>0.9001013530584657</v>
+      </c>
+      <c r="AC72">
+        <v>-0.7645873610003729</v>
+      </c>
+      <c r="AH72">
+        <v>-0.25629623083134</v>
+      </c>
+      <c r="AI72">
+        <v>0.9819296586734549</v>
+      </c>
+      <c r="AJ72">
+        <v>-0.9946911670150665</v>
+      </c>
+      <c r="AL72">
+        <v>-0.9987226937654655</v>
+      </c>
+      <c r="AM72">
+        <v>-0.9994715559923802</v>
+      </c>
+      <c r="AN72">
+        <v>-0.9999650723488162</v>
+      </c>
+      <c r="AO72">
+        <v>-0.9991355190327886</v>
+      </c>
+      <c r="AP72">
+        <v>-0.9993156599780086</v>
+      </c>
+      <c r="AR72">
+        <v>-0.9978550838835538</v>
+      </c>
+      <c r="AS72">
+        <v>-0.9981641597047747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45">
+      <c r="A73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73">
+        <v>2.88140624551968e-09</v>
+      </c>
+      <c r="E73">
+        <v>2.87154764737868e-09</v>
+      </c>
+      <c r="F73">
+        <v>2.040613238576467e-09</v>
+      </c>
+      <c r="G73">
+        <v>1.921745860225814e-09</v>
+      </c>
+      <c r="H73">
+        <v>5.105033192353998e-12</v>
+      </c>
+      <c r="I73">
+        <v>2.095215420864156e-08</v>
+      </c>
+      <c r="J73">
+        <v>0.0003233312687201399</v>
+      </c>
+      <c r="R73">
+        <v>5.231477187028534e-07</v>
+      </c>
+      <c r="S73">
+        <v>1.146058436946784e-05</v>
+      </c>
+      <c r="T73">
+        <v>2.878592018014398e-16</v>
+      </c>
+      <c r="U73">
+        <v>3.93251811756592e-10</v>
+      </c>
+      <c r="W73">
+        <v>5.850113889514442e-13</v>
+      </c>
+      <c r="AB73">
+        <v>1.153491727990105e-05</v>
+      </c>
+      <c r="AC73">
+        <v>0.001447751887948278</v>
+      </c>
+      <c r="AH73">
+        <v>0.3764417266586762</v>
+      </c>
+      <c r="AI73">
+        <v>4.835188117486584e-10</v>
+      </c>
+      <c r="AJ73">
+        <v>3.195513455331625e-13</v>
+      </c>
+      <c r="AL73">
+        <v>6.252780595250374e-17</v>
+      </c>
+      <c r="AM73">
+        <v>3.140465486095908e-19</v>
+      </c>
+      <c r="AN73">
+        <v>2.621052857576421e-26</v>
+      </c>
+      <c r="AO73">
+        <v>6.014783011036251e-18</v>
+      </c>
+      <c r="AP73">
+        <v>1.480766838937e-18</v>
+      </c>
+      <c r="AR73">
+        <v>1.39944844818395e-15</v>
+      </c>
+      <c r="AS73">
+        <v>5.505443109088943e-16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45">
+      <c r="A74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74">
+        <v>-0.9823185334846367</v>
+      </c>
+      <c r="E74">
+        <v>-0.9823427796220103</v>
+      </c>
+      <c r="F74">
+        <v>-0.9831857512767972</v>
+      </c>
+      <c r="G74">
+        <v>-0.983537903290241</v>
+      </c>
+      <c r="H74">
+        <v>0.9939163910933569</v>
+      </c>
+      <c r="I74">
+        <v>0.9529464631510021</v>
+      </c>
+      <c r="J74">
+        <v>0.8282607178851298</v>
+      </c>
+      <c r="K74">
+        <v>0.1100285282173693</v>
+      </c>
+      <c r="R74">
+        <v>0.9527209946838235</v>
+      </c>
+      <c r="S74">
+        <v>-0.9203811718833547</v>
+      </c>
+      <c r="T74">
+        <v>0.9979848914058115</v>
+      </c>
+      <c r="U74">
+        <v>-0.9901151298876039</v>
+      </c>
+      <c r="W74">
+        <v>0.9889460610840953</v>
+      </c>
+      <c r="AB74">
+        <v>-0.9179071678519416</v>
+      </c>
+      <c r="AC74">
+        <v>0.7943943401916418</v>
+      </c>
+      <c r="AH74">
+        <v>0.2576141775595859</v>
+      </c>
+      <c r="AI74">
+        <v>-0.9896825013331497</v>
+      </c>
+      <c r="AM74">
+        <v>0.9998246378884371</v>
+      </c>
+      <c r="AO74">
+        <v>0.9999574151642588</v>
+      </c>
+      <c r="AP74">
+        <v>0.9996410827192376</v>
+      </c>
+      <c r="AR74">
+        <v>0.9998810508642318</v>
+      </c>
+      <c r="AS74">
+        <v>0.9999393458591302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45">
+      <c r="A75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75">
+        <v>4.247069747591659e-10</v>
+      </c>
+      <c r="E75">
+        <v>4.212466325859598e-10</v>
+      </c>
+      <c r="F75">
+        <v>3.146712466473378e-10</v>
+      </c>
+      <c r="G75">
+        <v>2.77353101346078e-10</v>
+      </c>
+      <c r="H75">
+        <v>7.224226424857157e-13</v>
+      </c>
+      <c r="I75">
+        <v>1.41529532740124e-07</v>
+      </c>
+      <c r="J75">
+        <v>0.0002530905515800347</v>
+      </c>
+      <c r="K75">
+        <v>0.7080725510949968</v>
+      </c>
+      <c r="R75">
+        <v>1.455759522721536e-07</v>
+      </c>
+      <c r="S75">
+        <v>3.092508548126727e-06</v>
+      </c>
+      <c r="T75">
+        <v>9.625131318152391e-16</v>
+      </c>
+      <c r="U75">
+        <v>1.318562532015613e-11</v>
+      </c>
+      <c r="W75">
+        <v>2.572082106323487e-11</v>
+      </c>
+      <c r="AB75">
+        <v>3.695473445852064e-06</v>
+      </c>
+      <c r="AC75">
+        <v>0.0006890618053849818</v>
+      </c>
+      <c r="AH75">
+        <v>0.3739062187738686</v>
+      </c>
+      <c r="AI75">
+        <v>1.703402327622369e-11</v>
+      </c>
+      <c r="AM75">
+        <v>4.19704273850596e-22</v>
+      </c>
+      <c r="AO75">
+        <v>8.609585130560424e-26</v>
+      </c>
+      <c r="AP75">
+        <v>3.084069573972438e-20</v>
+      </c>
+      <c r="AR75">
+        <v>4.088359174381067e-23</v>
+      </c>
+      <c r="AS75">
+        <v>7.187838050328169e-25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45">
+      <c r="A76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76">
+        <v>-0.9800913285345347</v>
+      </c>
+      <c r="E76">
+        <v>-0.9801118895399883</v>
+      </c>
+      <c r="F76">
+        <v>-0.9809162229225126</v>
+      </c>
+      <c r="G76">
+        <v>-0.9812247082907597</v>
+      </c>
+      <c r="H76">
+        <v>0.9933294468779752</v>
+      </c>
+      <c r="I76">
+        <v>0.9579847412559579</v>
+      </c>
+      <c r="J76">
+        <v>0.8265135059113192</v>
+      </c>
+      <c r="K76">
+        <v>0.1038468009966916</v>
+      </c>
+      <c r="R76">
+        <v>0.9489158722891458</v>
+      </c>
+      <c r="S76">
+        <v>-0.91316602223518</v>
+      </c>
+      <c r="T76">
+        <v>0.9983721719344263</v>
+      </c>
+      <c r="U76">
+        <v>-0.9876949714887486</v>
+      </c>
+      <c r="W76">
+        <v>0.9911580236653957</v>
+      </c>
+      <c r="AB76">
+        <v>-0.9115560668492906</v>
+      </c>
+      <c r="AC76">
+        <v>0.7835247321736352</v>
+      </c>
+      <c r="AH76">
+        <v>0.255733711384638</v>
+      </c>
+      <c r="AI76">
+        <v>-0.9871835341613228</v>
+      </c>
+      <c r="AO76">
+        <v>0.9999548835318774</v>
+      </c>
+      <c r="AP76">
+        <v>0.9998445083761084</v>
+      </c>
+      <c r="AR76">
+        <v>0.9994390906154984</v>
+      </c>
+      <c r="AS76">
+        <v>0.9995930861669965</v>
+      </c>
+    </row>
+    <row r="77" spans="1:45">
+      <c r="A77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77">
+        <v>8.612817926207023e-10</v>
+      </c>
+      <c r="E77">
+        <v>8.559965469907924e-10</v>
+      </c>
+      <c r="F77">
+        <v>6.693467933312385e-10</v>
+      </c>
+      <c r="G77">
+        <v>6.073996997471401e-10</v>
+      </c>
+      <c r="H77">
+        <v>1.253854404055301e-12</v>
+      </c>
+      <c r="I77">
+        <v>7.252834285508709e-08</v>
+      </c>
+      <c r="J77">
+        <v>0.0002678607525406606</v>
+      </c>
+      <c r="K77">
+        <v>0.7238712546953077</v>
+      </c>
+      <c r="R77">
+        <v>2.297125920840029e-07</v>
+      </c>
+      <c r="S77">
+        <v>5.121696903138841e-06</v>
+      </c>
+      <c r="T77">
+        <v>2.676873182923605e-16</v>
+      </c>
+      <c r="U77">
+        <v>4.880997054843468e-11</v>
+      </c>
+      <c r="W77">
+        <v>6.769321620035172e-12</v>
+      </c>
+      <c r="AB77">
+        <v>5.698132645740589e-06</v>
+      </c>
+      <c r="AC77">
+        <v>0.000915124110418365</v>
+      </c>
+      <c r="AH77">
+        <v>0.3775267169332161</v>
+      </c>
+      <c r="AI77">
+        <v>6.225069252437001e-11</v>
+      </c>
+      <c r="AO77">
+        <v>1.217476466648532e-25</v>
+      </c>
+      <c r="AP77">
+        <v>2.039807961630605e-22</v>
+      </c>
+      <c r="AR77">
+        <v>4.490825470969431e-19</v>
+      </c>
+      <c r="AS77">
+        <v>6.548291497194924e-20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:45">
+      <c r="A78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78">
+        <v>-0.9745419596951524</v>
+      </c>
+      <c r="E78">
+        <v>-0.9745571139696785</v>
+      </c>
+      <c r="F78">
+        <v>-0.9760575897301201</v>
+      </c>
+      <c r="G78">
+        <v>-0.9763014239855554</v>
+      </c>
+      <c r="H78">
+        <v>0.9910274921383272</v>
+      </c>
+      <c r="I78">
+        <v>0.9668352610277308</v>
+      </c>
+      <c r="J78">
+        <v>0.8194632036740441</v>
+      </c>
+      <c r="R78">
+        <v>0.9402068397412494</v>
+      </c>
+      <c r="S78">
+        <v>-0.8982973082958867</v>
+      </c>
+      <c r="T78">
+        <v>0.9983358661226702</v>
+      </c>
+      <c r="U78">
+        <v>-0.9817135093938533</v>
+      </c>
+      <c r="W78">
+        <v>0.9942192481096715</v>
+      </c>
+      <c r="AB78">
+        <v>-0.8987325654399632</v>
+      </c>
+      <c r="AC78">
+        <v>0.7618714434399789</v>
+      </c>
+      <c r="AH78">
+        <v>0.2599369824399124</v>
+      </c>
+      <c r="AI78">
+        <v>-0.9810951060171212</v>
+      </c>
+      <c r="AL78">
+        <v>0.9983941579926531</v>
+      </c>
+      <c r="AM78">
+        <v>0.9992336424648209</v>
+      </c>
+      <c r="AO78">
+        <v>0.9988516389680445</v>
+      </c>
+      <c r="AP78">
+        <v>0.998989559533198</v>
+      </c>
+      <c r="AR78">
+        <v>0.9974537773729334</v>
+      </c>
+      <c r="AS78">
+        <v>0.9977877247836024</v>
+      </c>
+    </row>
+    <row r="79" spans="1:45">
+      <c r="A79" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79">
+        <v>3.720751026301906e-09</v>
+      </c>
+      <c r="E79">
+        <v>3.707603405676694e-09</v>
+      </c>
+      <c r="F79">
+        <v>2.582927984404105e-09</v>
+      </c>
+      <c r="G79">
+        <v>2.430343467024552e-09</v>
+      </c>
+      <c r="H79">
+        <v>7.389418125473463e-12</v>
+      </c>
+      <c r="I79">
+        <v>1.78848284334931e-08</v>
+      </c>
+      <c r="J79">
+        <v>0.0003347058619846313</v>
+      </c>
+      <c r="R79">
+        <v>5.795530072324569e-07</v>
+      </c>
+      <c r="S79">
+        <v>1.279097980502799e-05</v>
+      </c>
+      <c r="T79">
+        <v>3.055430199126615e-16</v>
+      </c>
+      <c r="U79">
+        <v>5.190328463018542e-10</v>
+      </c>
+      <c r="W79">
+        <v>5.321231001569212e-13</v>
+      </c>
+      <c r="AB79">
+        <v>1.247813734887481e-05</v>
+      </c>
+      <c r="AC79">
+        <v>0.001540996831838758</v>
+      </c>
+      <c r="AH79">
+        <v>0.3694599501874549</v>
+      </c>
+      <c r="AI79">
+        <v>6.328173533377706e-10</v>
+      </c>
+      <c r="AL79">
+        <v>2.467254592821797e-16</v>
+      </c>
+      <c r="AM79">
+        <v>2.919895342810804e-18</v>
+      </c>
+      <c r="AO79">
+        <v>3.30288716269898e-17</v>
+      </c>
+      <c r="AP79">
+        <v>1.533260149424756e-17</v>
+      </c>
+      <c r="AR79">
+        <v>3.912906376659191e-15</v>
+      </c>
+      <c r="AS79">
+        <v>1.684485257980024e-15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45">
+      <c r="A80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80">
+        <v>-0.9812632924734164</v>
+      </c>
+      <c r="E80">
+        <v>-0.9812857248307204</v>
+      </c>
+      <c r="F80">
+        <v>-0.9821099551922424</v>
+      </c>
+      <c r="G80">
+        <v>-0.9824406175805185</v>
+      </c>
+      <c r="H80">
+        <v>0.9936703326751004</v>
+      </c>
+      <c r="I80">
+        <v>0.9554714684845759</v>
+      </c>
+      <c r="J80">
+        <v>0.8274337029630732</v>
+      </c>
+      <c r="K80">
+        <v>0.1069846469721362</v>
+      </c>
+      <c r="R80">
+        <v>0.9508874300472157</v>
+      </c>
+      <c r="S80">
+        <v>-0.9168657220383447</v>
+      </c>
+      <c r="T80">
+        <v>0.998219829897826</v>
+      </c>
+      <c r="U80">
+        <v>-0.988965888935864</v>
+      </c>
+      <c r="W80">
+        <v>0.9900794351548109</v>
+      </c>
+      <c r="AB80">
+        <v>-0.9148182447780453</v>
+      </c>
+      <c r="AC80">
+        <v>0.7890732643960414</v>
+      </c>
+      <c r="AH80">
+        <v>0.2566963944349328</v>
+      </c>
+      <c r="AI80">
+        <v>-0.9884944598554337</v>
+      </c>
+      <c r="AP80">
+        <v>0.999785108803858</v>
+      </c>
+      <c r="AR80">
+        <v>0.9997070807489689</v>
+      </c>
+      <c r="AS80">
+        <v>0.9998125398581417</v>
+      </c>
+    </row>
+    <row r="81" spans="1:45">
+      <c r="A81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81">
+        <v>5.999986219752507e-10</v>
+      </c>
+      <c r="E81">
+        <v>5.957302912700973e-10</v>
+      </c>
+      <c r="F81">
+        <v>4.554626741636286e-10</v>
+      </c>
+      <c r="G81">
+        <v>4.075205614213466e-10</v>
+      </c>
+      <c r="H81">
+        <v>9.159660723672912e-13</v>
+      </c>
+      <c r="I81">
+        <v>1.022154291508213e-07</v>
+      </c>
+      <c r="J81">
+        <v>0.000259997446491495</v>
+      </c>
+      <c r="K81">
+        <v>0.7158386250650115</v>
+      </c>
+      <c r="R81">
+        <v>1.821781970749158e-07</v>
+      </c>
+      <c r="S81">
+        <v>3.976654588254971e-06</v>
+      </c>
+      <c r="T81">
+        <v>4.577240722276573e-16</v>
+      </c>
+      <c r="U81">
+        <v>2.544632707470297e-11</v>
+      </c>
+      <c r="W81">
+        <v>1.347286572256075e-11</v>
+      </c>
+      <c r="AB81">
+        <v>4.580852628500218e-06</v>
+      </c>
+      <c r="AC81">
+        <v>0.0007933235156941095</v>
+      </c>
+      <c r="AH81">
+        <v>0.3756709073821456</v>
+      </c>
+      <c r="AI81">
+        <v>3.267400678233625e-11</v>
+      </c>
+      <c r="AP81">
+        <v>1.421031627766128e-21</v>
+      </c>
+      <c r="AR81">
+        <v>9.113954831173257e-21</v>
+      </c>
+      <c r="AS81">
+        <v>6.262838066400171e-22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:45">
+      <c r="A82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82">
+        <v>-0.9810552363061722</v>
+      </c>
+      <c r="E82">
+        <v>-0.981065622961839</v>
+      </c>
+      <c r="F82">
+        <v>-0.9819532826704145</v>
+      </c>
+      <c r="G82">
+        <v>-0.9821415784129605</v>
+      </c>
+      <c r="H82">
+        <v>0.9940514796010714</v>
+      </c>
+      <c r="I82">
+        <v>0.9593634299428501</v>
+      </c>
+      <c r="J82">
+        <v>0.8264228577189048</v>
+      </c>
+      <c r="R82">
+        <v>0.946302936777497</v>
+      </c>
+      <c r="S82">
+        <v>-0.9113313187620367</v>
+      </c>
+      <c r="T82">
+        <v>0.9976771074337852</v>
+      </c>
+      <c r="U82">
+        <v>-0.9864657971947821</v>
+      </c>
+      <c r="W82">
+        <v>0.9922617688048577</v>
+      </c>
+      <c r="AB82">
+        <v>-0.9079141354570379</v>
+      </c>
+      <c r="AC82">
+        <v>0.7799697529748401</v>
+      </c>
+      <c r="AH82">
+        <v>0.2441889952657716</v>
+      </c>
+      <c r="AI82">
+        <v>-0.9859022690644915</v>
+      </c>
+      <c r="AR82">
+        <v>0.9991842209623074</v>
+      </c>
+      <c r="AS82">
+        <v>0.9993430500474088</v>
+      </c>
+    </row>
+    <row r="83" spans="1:45">
+      <c r="A83" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83">
+        <v>6.408120594016957e-10</v>
+      </c>
+      <c r="E83">
+        <v>6.387212793793471e-10</v>
+      </c>
+      <c r="F83">
+        <v>4.797629182234157e-10</v>
+      </c>
+      <c r="G83">
+        <v>4.506841519366993e-10</v>
+      </c>
+      <c r="H83">
+        <v>6.31543651384385e-13</v>
+      </c>
+      <c r="I83">
+        <v>5.95486528608657e-08</v>
+      </c>
+      <c r="J83">
+        <v>0.0002686456422485242</v>
+      </c>
+      <c r="R83">
+        <v>3.080984296514034e-07</v>
+      </c>
+      <c r="S83">
+        <v>5.78267929024447e-06</v>
+      </c>
+      <c r="T83">
+        <v>2.256856778198431e-15</v>
+      </c>
+      <c r="U83">
+        <v>8.619044839041298e-11</v>
+      </c>
+      <c r="W83">
+        <v>3.048806064589378e-12</v>
+      </c>
+      <c r="AB83">
+        <v>7.200602487690657e-06</v>
+      </c>
+      <c r="AC83">
+        <v>0.001000715003294811</v>
+      </c>
+      <c r="AH83">
+        <v>0.400160943221514</v>
+      </c>
+      <c r="AI83">
+        <v>1.099590727228294e-10</v>
+      </c>
+      <c r="AR83">
+        <v>4.247837896269002e-18</v>
+      </c>
+      <c r="AS83">
+        <v>1.158975496660365e-18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:45">
+      <c r="A84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84">
+        <v>0.940824901467014</v>
+      </c>
+      <c r="C84">
+        <v>0.9408255367563831</v>
+      </c>
+      <c r="D84">
+        <v>0.9737331317072506</v>
+      </c>
+      <c r="E84">
+        <v>0.9737479471327415</v>
+      </c>
+      <c r="F84">
+        <v>0.9752757308346405</v>
+      </c>
+      <c r="G84">
+        <v>0.9755154915767592</v>
+      </c>
+      <c r="H84">
+        <v>-0.9906592068186151</v>
+      </c>
+      <c r="I84">
+        <v>-0.9677638216368797</v>
+      </c>
+      <c r="J84">
+        <v>-0.8190172776569105</v>
+      </c>
+      <c r="L84">
+        <v>-0.985718100629342</v>
+      </c>
+      <c r="M84">
+        <v>0.5593639796943497</v>
+      </c>
+      <c r="N84">
+        <v>-0.9671578441026665</v>
+      </c>
+      <c r="O84">
+        <v>-0.9907982946056965</v>
+      </c>
+      <c r="P84">
+        <v>-0.9775118388698565</v>
+      </c>
+      <c r="Q84">
+        <v>-0.990556725816617</v>
+      </c>
+      <c r="R84">
+        <v>-0.9389345503642663</v>
+      </c>
+      <c r="S84">
+        <v>0.8963106979813692</v>
+      </c>
+      <c r="T84">
+        <v>-0.9981693546634968</v>
+      </c>
+      <c r="U84">
+        <v>0.9808088835909258</v>
+      </c>
+      <c r="W84">
+        <v>-0.9944407681151369</v>
+      </c>
+      <c r="X84">
+        <v>-0.8948321821463635</v>
+      </c>
+      <c r="Y84">
+        <v>-0.8821672719815633</v>
+      </c>
+      <c r="Z84">
+        <v>0.8905484872444839</v>
+      </c>
+      <c r="AA84">
+        <v>0.90212783806369</v>
+      </c>
+      <c r="AB84">
+        <v>0.8968806677736725</v>
+      </c>
+      <c r="AC84">
+        <v>-0.7587878339339893</v>
+      </c>
+      <c r="AD84">
+        <v>0.8775550179419236</v>
+      </c>
+      <c r="AE84">
+        <v>0.8848443222307406</v>
+      </c>
+      <c r="AF84">
+        <v>-0.9995114295361993</v>
+      </c>
+      <c r="AG84">
+        <v>-0.9994045860855386</v>
+      </c>
+      <c r="AH84">
+        <v>-0.261680182683999</v>
+      </c>
+      <c r="AI84">
+        <v>0.9801728599130565</v>
+      </c>
+      <c r="AJ84">
+        <v>-0.9935460720834185</v>
+      </c>
+      <c r="AK84">
+        <v>0.999899220147046</v>
+      </c>
+      <c r="AL84">
+        <v>-0.9980596301428922</v>
+      </c>
+      <c r="AM84">
+        <v>-0.9989897851429438</v>
+      </c>
+      <c r="AN84">
+        <v>-0.9999812950972345</v>
+      </c>
+      <c r="AO84">
+        <v>-0.9985617780107178</v>
+      </c>
+      <c r="AP84">
+        <v>-0.9987118185972952</v>
+      </c>
+      <c r="AR84">
+        <v>-0.9970466472767426</v>
+      </c>
+      <c r="AS84">
+        <v>-0.9974053636613067</v>
+      </c>
+    </row>
+    <row r="85" spans="1:45">
+      <c r="A85" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85">
+        <v>5.45264168587547e-07</v>
+      </c>
+      <c r="C85">
+        <v>5.452298064411529e-07</v>
+      </c>
+      <c r="D85">
+        <v>4.480950379571064e-09</v>
+      </c>
+      <c r="E85">
+        <v>4.4659505329199e-09</v>
+      </c>
+      <c r="F85">
+        <v>3.12688010236174e-09</v>
+      </c>
+      <c r="G85">
+        <v>2.950829314872406e-09</v>
+      </c>
+      <c r="H85">
+        <v>9.39908808135427e-12</v>
+      </c>
+      <c r="I85">
+        <v>1.511339214149117e-08</v>
+      </c>
+      <c r="J85">
+        <v>0.0003393479866499486</v>
+      </c>
+      <c r="L85">
+        <v>1.188171752363938e-10</v>
+      </c>
+      <c r="M85">
+        <v>0.0375484652378479</v>
+      </c>
+      <c r="N85">
+        <v>1.68779373138271e-08</v>
+      </c>
+      <c r="O85">
+        <v>8.592569266283216e-12</v>
+      </c>
+      <c r="P85">
+        <v>1.779076256084195e-09</v>
+      </c>
+      <c r="Q85">
+        <v>1.00328207691957e-11</v>
+      </c>
+      <c r="R85">
+        <v>6.557597326821235e-07</v>
+      </c>
+      <c r="S85">
+        <v>1.430167077605398e-05</v>
+      </c>
+      <c r="T85">
+        <v>5.412688205970426e-16</v>
+      </c>
+      <c r="U85">
+        <v>6.920954079399606e-10</v>
+      </c>
+      <c r="W85">
+        <v>4.211157496693462e-13</v>
+      </c>
+      <c r="X85">
+        <v>1.551835884659833e-05</v>
+      </c>
+      <c r="Y85">
+        <v>2.984155467839603e-05</v>
+      </c>
+      <c r="Z85">
+        <v>1.953072353427446e-05</v>
+      </c>
+      <c r="AA85">
+        <v>1.024645491530965e-05</v>
+      </c>
+      <c r="AB85">
+        <v>1.38540381004168e-05</v>
+      </c>
+      <c r="AC85">
+        <v>0.001652589312128241</v>
+      </c>
+      <c r="AD85">
+        <v>3.718505214181242e-05</v>
+      </c>
+      <c r="AE85">
+        <v>2.615459454266269e-05</v>
+      </c>
+      <c r="AF85">
+        <v>1.961555161014288e-19</v>
+      </c>
+      <c r="AG85">
+        <v>6.424682933314738e-19</v>
+      </c>
+      <c r="AH85">
+        <v>0.3661419938775592</v>
+      </c>
+      <c r="AI85">
+        <v>8.404821788752504e-10</v>
+      </c>
+      <c r="AJ85">
+        <v>1.029017614874957e-12</v>
+      </c>
+      <c r="AK85">
+        <v>1.512308971767511e-23</v>
+      </c>
+      <c r="AL85">
+        <v>7.673485145430061e-16</v>
+      </c>
+      <c r="AM85">
+        <v>1.531207971015324e-17</v>
+      </c>
+      <c r="AN85">
+        <v>6.183114933643354e-28</v>
+      </c>
+      <c r="AO85">
+        <v>1.273821902193872e-16</v>
+      </c>
+      <c r="AP85">
+        <v>6.578926315808138e-17</v>
+      </c>
+      <c r="AR85">
+        <v>9.519931664480996e-15</v>
+      </c>
+      <c r="AS85">
+        <v>4.380615082549412e-15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:45">
+      <c r="A86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86">
+        <v>-0.9835442411984321</v>
+      </c>
+      <c r="E86">
+        <v>-0.9835738763625117</v>
+      </c>
+      <c r="F86">
+        <v>-0.9840944645032281</v>
+      </c>
+      <c r="G86">
+        <v>-0.9845105533035743</v>
+      </c>
+      <c r="H86">
+        <v>0.993917117713607</v>
+      </c>
+      <c r="I86">
+        <v>0.9482952976350351</v>
+      </c>
+      <c r="J86">
+        <v>0.8307940007519554</v>
+      </c>
+      <c r="K86">
+        <v>0.1186057227338634</v>
+      </c>
+      <c r="R86">
+        <v>0.9562656935012751</v>
+      </c>
+      <c r="S86">
+        <v>-0.9261303160893661</v>
+      </c>
+      <c r="T86">
+        <v>0.997454254283646</v>
+      </c>
+      <c r="U86">
+        <v>-0.9921103055388716</v>
+      </c>
+      <c r="W86">
+        <v>0.9866669805340043</v>
+      </c>
+      <c r="AB86">
+        <v>-0.9233158526176883</v>
+      </c>
+      <c r="AC86">
+        <v>0.8032672107414532</v>
+      </c>
+      <c r="AH86">
+        <v>0.2603335898936298</v>
+      </c>
+      <c r="AI86">
+        <v>-0.9917303835595027</v>
+      </c>
+      <c r="AS86">
+        <v>0.9999868964438476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:45">
+      <c r="A87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87">
+        <v>2.767168144949076e-10</v>
+      </c>
+      <c r="E87">
+        <v>2.737577064756853e-10</v>
+      </c>
+      <c r="F87">
+        <v>2.259088111096287e-10</v>
+      </c>
+      <c r="G87">
+        <v>1.928627927900374e-10</v>
+      </c>
+      <c r="H87">
+        <v>7.219062110899284e-13</v>
+      </c>
+      <c r="I87">
+        <v>2.466378765417363e-07</v>
+      </c>
+      <c r="J87">
+        <v>0.0002328507181590183</v>
+      </c>
+      <c r="K87">
+        <v>0.6863324414358594</v>
+      </c>
+      <c r="R87">
+        <v>9.191191677988965e-08</v>
+      </c>
+      <c r="S87">
+        <v>1.997696904227808e-06</v>
+      </c>
+      <c r="T87">
+        <v>3.908515079703628e-15</v>
+      </c>
+      <c r="U87">
+        <v>3.423728459080135e-12</v>
+      </c>
+      <c r="W87">
+        <v>7.881744629520977e-11</v>
+      </c>
+      <c r="AB87">
+        <v>2.484660225617239e-06</v>
+      </c>
+      <c r="AC87">
+        <v>0.0005398399637516781</v>
+      </c>
+      <c r="AH87">
+        <v>0.36870363718278</v>
+      </c>
+      <c r="AI87">
+        <v>4.536236731276014e-12</v>
+      </c>
+      <c r="AS87">
+        <v>7.308274434935819e-29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:45">
+      <c r="A88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88">
+        <v>-0.9830312901276114</v>
+      </c>
+      <c r="E88">
+        <v>-0.9830600566015948</v>
+      </c>
+      <c r="F88">
+        <v>-0.9835550123440521</v>
+      </c>
+      <c r="G88">
+        <v>-0.9839608179469957</v>
+      </c>
+      <c r="H88">
+        <v>0.9938506551081805</v>
+      </c>
+      <c r="I88">
+        <v>0.9497454613873565</v>
+      </c>
+      <c r="J88">
+        <v>0.830457801456247</v>
+      </c>
+      <c r="K88">
+        <v>0.1171016546804687</v>
+      </c>
+      <c r="R88">
+        <v>0.9553515019310446</v>
+      </c>
+      <c r="S88">
+        <v>-0.9242804777797582</v>
+      </c>
+      <c r="T88">
+        <v>0.9976666645797376</v>
+      </c>
+      <c r="U88">
+        <v>-0.9915710590263889</v>
+      </c>
+      <c r="W88">
+        <v>0.9873585382710983</v>
+      </c>
+      <c r="AB88">
+        <v>-0.9217108074757757</v>
+      </c>
+      <c r="AC88">
+        <v>0.8004215845351079</v>
+      </c>
+      <c r="AH88">
+        <v>0.2599635698056892</v>
+      </c>
+      <c r="AI88">
+        <v>-0.9911697061219471</v>
+      </c>
+    </row>
+    <row r="89" spans="1:45">
+      <c r="A89" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89">
+        <v>3.323077700708499e-10</v>
+      </c>
+      <c r="E89">
+        <v>3.289623763683178e-10</v>
+      </c>
+      <c r="F89">
+        <v>2.756382417280383e-10</v>
+      </c>
+      <c r="G89">
+        <v>2.374715241497491e-10</v>
+      </c>
+      <c r="H89">
+        <v>7.704339516082287e-13</v>
+      </c>
+      <c r="I89">
+        <v>2.085971298297888e-07</v>
+      </c>
+      <c r="J89">
+        <v>0.0002354588178002944</v>
+      </c>
+      <c r="K89">
+        <v>0.6901289844202385</v>
+      </c>
+      <c r="R89">
+        <v>1.038517247600031e-07</v>
+      </c>
+      <c r="S89">
+        <v>2.307841250449346e-06</v>
+      </c>
+      <c r="T89">
+        <v>2.318369045093704e-15</v>
+      </c>
+      <c r="U89">
+        <v>5.084787713511221e-12</v>
+      </c>
+      <c r="W89">
+        <v>5.734320055265225e-11</v>
+      </c>
+      <c r="AB89">
+        <v>2.803521791380659e-06</v>
+      </c>
+      <c r="AC89">
+        <v>0.0005845437525095666</v>
+      </c>
+      <c r="AH89">
+        <v>0.3694092230781682</v>
+      </c>
+      <c r="AI89">
+        <v>6.716003501111827e-12</v>
       </c>
     </row>
   </sheetData>
